--- a/outputs-HGR-r202/train-g__Faecalimonas_split_pruned.xlsx
+++ b/outputs-HGR-r202/train-g__Faecalimonas_split_pruned.xlsx
@@ -10,6 +10,7 @@
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
     <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="983">
   <si>
     <t>Row</t>
   </si>
@@ -2384,6 +2385,588 @@
   </si>
   <si>
     <t>label_GCF_000411335_1.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_69_18.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_69_30.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_69_32.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_69_33.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_69_34.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_69_38.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_69_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_101.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_102.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_104.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_106.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_107.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_110.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_111.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_116.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_121.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_124.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_133.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_139.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_140.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_144.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_145.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_157.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_163.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_167.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_168.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_169.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_180.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_183.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_186.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_189.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_193.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_197.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_198.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_200.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_203.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_206.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_215.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_217.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_218.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_224.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_225.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_65.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_85.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_87.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1607_99.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS873_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS873_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS873_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS873_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS873_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS873_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS873_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS873_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS873_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS873_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS873_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS873_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS873_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS873_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS873_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS873_67.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1275_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1275_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1275_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1275_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1275_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1275_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1275_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1275_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1275_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1275_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1275_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1275_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1275_76.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_105.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_113.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_115.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_119.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_121.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_122.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_125.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_127.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_129.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_136.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_138.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_142.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_146.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_148.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_152.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_160.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_165.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_167.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_177.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_185.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_187.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_189.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_77.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_83.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_88.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_94.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1353_96.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1451_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1451_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1451_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1451_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1451_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1451_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1451_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1451_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1819_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1819_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1819_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_103.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_104.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_117.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_124.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_128.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_132.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_133.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_142.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_143.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_145.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_149.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_155.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_172.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_178.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_185.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_187.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_193.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_196.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_203.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_216.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_219.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_221.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_222.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_223.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_225.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_233.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_243.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_254.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_255.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_258.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_263.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_267.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_270.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_274.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_276.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_286.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_77.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_80.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_81.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_92.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_94.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_96.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1971_99.fasta</t>
   </si>
 </sst>
 </file>
@@ -2404,7 +2987,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2420,11 +3003,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -2434,6 +3019,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -32209,4 +32796,7437 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L195"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="true"/>
+    <col min="2" max="2" width="26.42578125" customWidth="true"/>
+    <col min="3" max="3" width="27.42578125" customWidth="true"/>
+    <col min="4" max="4" width="27.42578125" customWidth="true"/>
+    <col min="5" max="5" width="27.42578125" customWidth="true"/>
+    <col min="6" max="6" width="27.42578125" customWidth="true"/>
+    <col min="7" max="7" width="27.42578125" customWidth="true"/>
+    <col min="8" max="8" width="27.42578125" customWidth="true"/>
+    <col min="9" max="9" width="27.42578125" customWidth="true"/>
+    <col min="10" max="10" width="25.7109375" customWidth="true"/>
+    <col min="11" max="11" width="10.28515625" customWidth="true"/>
+    <col min="12" max="12" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="B2">
+        <v>0.30772071005339563</v>
+      </c>
+      <c r="C2">
+        <v>0.41687682385963237</v>
+      </c>
+      <c r="D2">
+        <v>0.0071495708400025415</v>
+      </c>
+      <c r="E2">
+        <v>0.029146530624070577</v>
+      </c>
+      <c r="F2">
+        <v>0.18721787660079778</v>
+      </c>
+      <c r="G2">
+        <v>0.0090175258507302278</v>
+      </c>
+      <c r="H2">
+        <v>0.0068661863060634626</v>
+      </c>
+      <c r="I2">
+        <v>0.015187399246497131</v>
+      </c>
+      <c r="J2">
+        <v>0.020817376618810328</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="B3">
+        <v>0.29376758888067278</v>
+      </c>
+      <c r="C3">
+        <v>0.29066801143676058</v>
+      </c>
+      <c r="D3">
+        <v>0.032261164471555422</v>
+      </c>
+      <c r="E3">
+        <v>0.035510645264441726</v>
+      </c>
+      <c r="F3">
+        <v>0.31579642252376139</v>
+      </c>
+      <c r="G3">
+        <v>0.0075457350212072526</v>
+      </c>
+      <c r="H3">
+        <v>0.0069647075051167745</v>
+      </c>
+      <c r="I3">
+        <v>0.010622038334272299</v>
+      </c>
+      <c r="J3">
+        <v>0.0068636865622118638</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="B4">
+        <v>0.4650316755605548</v>
+      </c>
+      <c r="C4">
+        <v>0.22206486424259703</v>
+      </c>
+      <c r="D4">
+        <v>0.0070499110917669602</v>
+      </c>
+      <c r="E4">
+        <v>0.06240132435876538</v>
+      </c>
+      <c r="F4">
+        <v>0.140365947474725</v>
+      </c>
+      <c r="G4">
+        <v>0.0077494397799389627</v>
+      </c>
+      <c r="H4">
+        <v>0.0065923953563024554</v>
+      </c>
+      <c r="I4">
+        <v>0.080599436510378167</v>
+      </c>
+      <c r="J4">
+        <v>0.0081450056249713614</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="B5">
+        <v>0.27615429639691291</v>
+      </c>
+      <c r="C5">
+        <v>0.22441933534352992</v>
+      </c>
+      <c r="D5">
+        <v>0.04824878605227912</v>
+      </c>
+      <c r="E5">
+        <v>0.013542311337047712</v>
+      </c>
+      <c r="F5">
+        <v>0.29145075002748039</v>
+      </c>
+      <c r="G5">
+        <v>0.0081287370380140472</v>
+      </c>
+      <c r="H5">
+        <v>0.0062838794010422073</v>
+      </c>
+      <c r="I5">
+        <v>0.12457016813027504</v>
+      </c>
+      <c r="J5">
+        <v>0.0072017362734186421</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="B6">
+        <v>0.44947378363425111</v>
+      </c>
+      <c r="C6">
+        <v>0.13347861213944667</v>
+      </c>
+      <c r="D6">
+        <v>0.0063218842766777595</v>
+      </c>
+      <c r="E6">
+        <v>0.07243009157532862</v>
+      </c>
+      <c r="F6">
+        <v>0.1916649555747704</v>
+      </c>
+      <c r="G6">
+        <v>0.0063179215699856349</v>
+      </c>
+      <c r="H6">
+        <v>0.0059102283069981726</v>
+      </c>
+      <c r="I6">
+        <v>0.1234510589103703</v>
+      </c>
+      <c r="J6">
+        <v>0.010951464012171321</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="B7">
+        <v>0.26853277744473319</v>
+      </c>
+      <c r="C7">
+        <v>0.18825934971627592</v>
+      </c>
+      <c r="D7">
+        <v>0.06891348105543238</v>
+      </c>
+      <c r="E7">
+        <v>0.01751520216300596</v>
+      </c>
+      <c r="F7">
+        <v>0.35837854409105108</v>
+      </c>
+      <c r="G7">
+        <v>0.010671763950093798</v>
+      </c>
+      <c r="H7">
+        <v>0.006173274278742316</v>
+      </c>
+      <c r="I7">
+        <v>0.07517028860097931</v>
+      </c>
+      <c r="J7">
+        <v>0.0063853186996859846</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="B8">
+        <v>0.19599388688226202</v>
+      </c>
+      <c r="C8">
+        <v>2.2300775664583307e-14</v>
+      </c>
+      <c r="D8">
+        <v>0.082697910648003581</v>
+      </c>
+      <c r="E8">
+        <v>0.0010508022809138904</v>
+      </c>
+      <c r="F8">
+        <v>0.14324712980716064</v>
+      </c>
+      <c r="G8">
+        <v>0.007480986492316378</v>
+      </c>
+      <c r="H8">
+        <v>0.00014397361511917826</v>
+      </c>
+      <c r="I8">
+        <v>0.5693724091294311</v>
+      </c>
+      <c r="J8">
+        <v>1.2901144770987997e-05</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="B9">
+        <v>0.27564474795120447</v>
+      </c>
+      <c r="C9">
+        <v>0.17289846104744586</v>
+      </c>
+      <c r="D9">
+        <v>0.018683905013457604</v>
+      </c>
+      <c r="E9">
+        <v>0.03891687902419514</v>
+      </c>
+      <c r="F9">
+        <v>0.24343303581514356</v>
+      </c>
+      <c r="G9">
+        <v>0.012229769791468165</v>
+      </c>
+      <c r="H9">
+        <v>0.0059976641170808509</v>
+      </c>
+      <c r="I9">
+        <v>0.2258505412021414</v>
+      </c>
+      <c r="J9">
+        <v>0.006344996037862813</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="B10">
+        <v>0.20145487861052871</v>
+      </c>
+      <c r="C10">
+        <v>2.2254309790906576e-14</v>
+      </c>
+      <c r="D10">
+        <v>0.0065747740066485864</v>
+      </c>
+      <c r="E10">
+        <v>0.026270630453683819</v>
+      </c>
+      <c r="F10">
+        <v>0.32288412385539644</v>
+      </c>
+      <c r="G10">
+        <v>0.012657899712319495</v>
+      </c>
+      <c r="H10">
+        <v>5.9324004297755717e-05</v>
+      </c>
+      <c r="I10">
+        <v>0.42976589638594731</v>
+      </c>
+      <c r="J10">
+        <v>0.00033247297115568348</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="B11">
+        <v>0.316629353990519</v>
+      </c>
+      <c r="C11">
+        <v>0.23615705167185097</v>
+      </c>
+      <c r="D11">
+        <v>0.022387033318704289</v>
+      </c>
+      <c r="E11">
+        <v>0.044950855936584461</v>
+      </c>
+      <c r="F11">
+        <v>0.1893995724038379</v>
+      </c>
+      <c r="G11">
+        <v>0.01735763424177143</v>
+      </c>
+      <c r="H11">
+        <v>0.0062247666633425082</v>
+      </c>
+      <c r="I11">
+        <v>0.1606202283017788</v>
+      </c>
+      <c r="J11">
+        <v>0.0062735034716106851</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="B12">
+        <v>0.20279100583117837</v>
+      </c>
+      <c r="C12">
+        <v>0.15480651660316763</v>
+      </c>
+      <c r="D12">
+        <v>0.014534742964927098</v>
+      </c>
+      <c r="E12">
+        <v>0.060272014869969616</v>
+      </c>
+      <c r="F12">
+        <v>0.50800295249126703</v>
+      </c>
+      <c r="G12">
+        <v>0.012362152436110621</v>
+      </c>
+      <c r="H12">
+        <v>0.0062451613181308194</v>
+      </c>
+      <c r="I12">
+        <v>0.034567026813714083</v>
+      </c>
+      <c r="J12">
+        <v>0.0064184266715348335</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="B13">
+        <v>0.19545603573672879</v>
+      </c>
+      <c r="C13">
+        <v>2.2335596218545233e-14</v>
+      </c>
+      <c r="D13">
+        <v>0.33208405228115823</v>
+      </c>
+      <c r="E13">
+        <v>0.026063494121804347</v>
+      </c>
+      <c r="F13">
+        <v>0.085513591674956521</v>
+      </c>
+      <c r="G13">
+        <v>0.0027485236753252</v>
+      </c>
+      <c r="H13">
+        <v>0.0018230309542561288</v>
+      </c>
+      <c r="I13">
+        <v>0.35616823013564192</v>
+      </c>
+      <c r="J13">
+        <v>0.00014304142010665153</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="B14">
+        <v>0.25343686064456866</v>
+      </c>
+      <c r="C14">
+        <v>0.23881047186201021</v>
+      </c>
+      <c r="D14">
+        <v>0.088971767917491271</v>
+      </c>
+      <c r="E14">
+        <v>0.025775349778793064</v>
+      </c>
+      <c r="F14">
+        <v>0.253927232052858</v>
+      </c>
+      <c r="G14">
+        <v>0.01027078301571562</v>
+      </c>
+      <c r="H14">
+        <v>0.0069151889260932152</v>
+      </c>
+      <c r="I14">
+        <v>0.11568366194161474</v>
+      </c>
+      <c r="J14">
+        <v>0.0062086838608552252</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="B15">
+        <v>0.21459720152854936</v>
+      </c>
+      <c r="C15">
+        <v>2.2331427435130974e-14</v>
+      </c>
+      <c r="D15">
+        <v>0.011148589258313605</v>
+      </c>
+      <c r="E15">
+        <v>0.044474274532129952</v>
+      </c>
+      <c r="F15">
+        <v>0.16770443837958501</v>
+      </c>
+      <c r="G15">
+        <v>0.0041567918432338482</v>
+      </c>
+      <c r="H15">
+        <v>0.0014706684159799535</v>
+      </c>
+      <c r="I15">
+        <v>0.5561972524221529</v>
+      </c>
+      <c r="J15">
+        <v>0.00025078362003304327</v>
+      </c>
+      <c r="K15">
+        <v>8</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="B16">
+        <v>0.30926319435889305</v>
+      </c>
+      <c r="C16">
+        <v>0.22784202346017959</v>
+      </c>
+      <c r="D16">
+        <v>0.014128139400843731</v>
+      </c>
+      <c r="E16">
+        <v>0.059438539273407157</v>
+      </c>
+      <c r="F16">
+        <v>0.25471637281128356</v>
+      </c>
+      <c r="G16">
+        <v>0.011759918777235963</v>
+      </c>
+      <c r="H16">
+        <v>0.0062624970158064808</v>
+      </c>
+      <c r="I16">
+        <v>0.11012491098283361</v>
+      </c>
+      <c r="J16">
+        <v>0.0064644039195168989</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="B17">
+        <v>0.29013998226013554</v>
+      </c>
+      <c r="C17">
+        <v>0.18623647841415814</v>
+      </c>
+      <c r="D17">
+        <v>0.011323096199004075</v>
+      </c>
+      <c r="E17">
+        <v>0.080261577393163197</v>
+      </c>
+      <c r="F17">
+        <v>0.33701262449321479</v>
+      </c>
+      <c r="G17">
+        <v>0.0095497102522796827</v>
+      </c>
+      <c r="H17">
+        <v>0.0063224343674838845</v>
+      </c>
+      <c r="I17">
+        <v>0.072723784144168593</v>
+      </c>
+      <c r="J17">
+        <v>0.0064303124763919481</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="B18">
+        <v>0.32019020901511774</v>
+      </c>
+      <c r="C18">
+        <v>0.18647230764058079</v>
+      </c>
+      <c r="D18">
+        <v>0.013502930943431029</v>
+      </c>
+      <c r="E18">
+        <v>0.059480058786486649</v>
+      </c>
+      <c r="F18">
+        <v>0.16529592390577338</v>
+      </c>
+      <c r="G18">
+        <v>0.009074422679547816</v>
+      </c>
+      <c r="H18">
+        <v>0.010800045955338412</v>
+      </c>
+      <c r="I18">
+        <v>0.22910597901430949</v>
+      </c>
+      <c r="J18">
+        <v>0.0060781220594148012</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="B19">
+        <v>0.25279126726362883</v>
+      </c>
+      <c r="C19">
+        <v>0.11101457535972828</v>
+      </c>
+      <c r="D19">
+        <v>0.01714623637640697</v>
+      </c>
+      <c r="E19">
+        <v>0.054699102132631537</v>
+      </c>
+      <c r="F19">
+        <v>0.51270845501447759</v>
+      </c>
+      <c r="G19">
+        <v>0.011267265219982326</v>
+      </c>
+      <c r="H19">
+        <v>0.0057616603511544883</v>
+      </c>
+      <c r="I19">
+        <v>0.028741246112197034</v>
+      </c>
+      <c r="J19">
+        <v>0.0058701921697927794</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="B20">
+        <v>0.29302139447799674</v>
+      </c>
+      <c r="C20">
+        <v>0.19125917381884694</v>
+      </c>
+      <c r="D20">
+        <v>0.016175284629603229</v>
+      </c>
+      <c r="E20">
+        <v>0.024264303894634225</v>
+      </c>
+      <c r="F20">
+        <v>0.40416373504763276</v>
+      </c>
+      <c r="G20">
+        <v>0.010834119660143643</v>
+      </c>
+      <c r="H20">
+        <v>0.0065013016725692452</v>
+      </c>
+      <c r="I20">
+        <v>0.047136664555475799</v>
+      </c>
+      <c r="J20">
+        <v>0.0066440222430974843</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="B21">
+        <v>0.26243093839272758</v>
+      </c>
+      <c r="C21">
+        <v>0.19284560593413455</v>
+      </c>
+      <c r="D21">
+        <v>0.013286106168498847</v>
+      </c>
+      <c r="E21">
+        <v>0.090698267168439248</v>
+      </c>
+      <c r="F21">
+        <v>0.29017096144698307</v>
+      </c>
+      <c r="G21">
+        <v>0.01331923127113239</v>
+      </c>
+      <c r="H21">
+        <v>0.0060047950561182145</v>
+      </c>
+      <c r="I21">
+        <v>0.12496140738574753</v>
+      </c>
+      <c r="J21">
+        <v>0.0062826871762184985</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="B22">
+        <v>0.26716864272882873</v>
+      </c>
+      <c r="C22">
+        <v>0.18386979419259813</v>
+      </c>
+      <c r="D22">
+        <v>0.012668013961029198</v>
+      </c>
+      <c r="E22">
+        <v>0.078878091490700838</v>
+      </c>
+      <c r="F22">
+        <v>0.33141734307890064</v>
+      </c>
+      <c r="G22">
+        <v>0.010950242961851951</v>
+      </c>
+      <c r="H22">
+        <v>0.0061744235617374934</v>
+      </c>
+      <c r="I22">
+        <v>0.10266720195977917</v>
+      </c>
+      <c r="J22">
+        <v>0.0062062460645738952</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="B23">
+        <v>0.35162832952881357</v>
+      </c>
+      <c r="C23">
+        <v>0.10897422547292802</v>
+      </c>
+      <c r="D23">
+        <v>0.038705883255845584</v>
+      </c>
+      <c r="E23">
+        <v>0.011150610586419326</v>
+      </c>
+      <c r="F23">
+        <v>0.167733949544251</v>
+      </c>
+      <c r="G23">
+        <v>0.015565994291035503</v>
+      </c>
+      <c r="H23">
+        <v>0.0053921880301762808</v>
+      </c>
+      <c r="I23">
+        <v>0.29546595328467695</v>
+      </c>
+      <c r="J23">
+        <v>0.0053828660058537732</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="B24">
+        <v>0.35105690333580303</v>
+      </c>
+      <c r="C24">
+        <v>0.19020892179095947</v>
+      </c>
+      <c r="D24">
+        <v>0.0069019100070320171</v>
+      </c>
+      <c r="E24">
+        <v>0.019014479872831693</v>
+      </c>
+      <c r="F24">
+        <v>0.34387118996470212</v>
+      </c>
+      <c r="G24">
+        <v>0.0073085446692374816</v>
+      </c>
+      <c r="H24">
+        <v>0.0066269689291098607</v>
+      </c>
+      <c r="I24">
+        <v>0.065967084517685667</v>
+      </c>
+      <c r="J24">
+        <v>0.0090439969126388398</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="B25">
+        <v>0.25526789946154793</v>
+      </c>
+      <c r="C25">
+        <v>0.23423218857264363</v>
+      </c>
+      <c r="D25">
+        <v>0.019607404346591847</v>
+      </c>
+      <c r="E25">
+        <v>0.066879648972173272</v>
+      </c>
+      <c r="F25">
+        <v>0.25924206842733982</v>
+      </c>
+      <c r="G25">
+        <v>0.014869132819237628</v>
+      </c>
+      <c r="H25">
+        <v>0.0060314718020337528</v>
+      </c>
+      <c r="I25">
+        <v>0.13758684861376066</v>
+      </c>
+      <c r="J25">
+        <v>0.0062833369846713189</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="B26">
+        <v>0.26447174512953037</v>
+      </c>
+      <c r="C26">
+        <v>0.21547845851387945</v>
+      </c>
+      <c r="D26">
+        <v>0.009993700622016469</v>
+      </c>
+      <c r="E26">
+        <v>0.059070863993978533</v>
+      </c>
+      <c r="F26">
+        <v>0.37220406434243641</v>
+      </c>
+      <c r="G26">
+        <v>0.01366389625986404</v>
+      </c>
+      <c r="H26">
+        <v>0.0070909583791272665</v>
+      </c>
+      <c r="I26">
+        <v>0.051505889465549293</v>
+      </c>
+      <c r="J26">
+        <v>0.0065204232936182461</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="B27">
+        <v>0.30444065084491145</v>
+      </c>
+      <c r="C27">
+        <v>0.19044411371235453</v>
+      </c>
+      <c r="D27">
+        <v>0.023863825183220701</v>
+      </c>
+      <c r="E27">
+        <v>0.061391001288441362</v>
+      </c>
+      <c r="F27">
+        <v>0.24382438912747648</v>
+      </c>
+      <c r="G27">
+        <v>0.011699564338355863</v>
+      </c>
+      <c r="H27">
+        <v>0.006086150584086427</v>
+      </c>
+      <c r="I27">
+        <v>0.15195143479653928</v>
+      </c>
+      <c r="J27">
+        <v>0.0062988701246139587</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="B28">
+        <v>0.46872941101100724</v>
+      </c>
+      <c r="C28">
+        <v>2.3988329669395758e-14</v>
+      </c>
+      <c r="D28">
+        <v>0.032775858669203399</v>
+      </c>
+      <c r="E28">
+        <v>0.030068012233903974</v>
+      </c>
+      <c r="F28">
+        <v>0.079230900891062217</v>
+      </c>
+      <c r="G28">
+        <v>0.0075292904490681769</v>
+      </c>
+      <c r="H28">
+        <v>0.00010245645558870857</v>
+      </c>
+      <c r="I28">
+        <v>0.38150014232178275</v>
+      </c>
+      <c r="J28">
+        <v>6.3927968359552307e-05</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>816</v>
+      </c>
+      <c r="B29">
+        <v>0.30189356335087358</v>
+      </c>
+      <c r="C29">
+        <v>0.16352132353573245</v>
+      </c>
+      <c r="D29">
+        <v>0.034853770206175222</v>
+      </c>
+      <c r="E29">
+        <v>0.064500710509858047</v>
+      </c>
+      <c r="F29">
+        <v>0.35223812138420268</v>
+      </c>
+      <c r="G29">
+        <v>0.012277235643294169</v>
+      </c>
+      <c r="H29">
+        <v>0.0062394987431899831</v>
+      </c>
+      <c r="I29">
+        <v>0.058539420678637578</v>
+      </c>
+      <c r="J29">
+        <v>0.0059363559480365563</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>817</v>
+      </c>
+      <c r="B30">
+        <v>0.35048670526944903</v>
+      </c>
+      <c r="C30">
+        <v>0.28225766094001958</v>
+      </c>
+      <c r="D30">
+        <v>0.038958142949339296</v>
+      </c>
+      <c r="E30">
+        <v>0.033883757546421485</v>
+      </c>
+      <c r="F30">
+        <v>0.069750792659541372</v>
+      </c>
+      <c r="G30">
+        <v>0.0076011698537304983</v>
+      </c>
+      <c r="H30">
+        <v>0.017907627305120494</v>
+      </c>
+      <c r="I30">
+        <v>0.19271457461406594</v>
+      </c>
+      <c r="J30">
+        <v>0.0064395688623123445</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="B31">
+        <v>0.3306324252137488</v>
+      </c>
+      <c r="C31">
+        <v>0.18132177401417779</v>
+      </c>
+      <c r="D31">
+        <v>0.030194009428485449</v>
+      </c>
+      <c r="E31">
+        <v>0.022058931141361569</v>
+      </c>
+      <c r="F31">
+        <v>0.13513525878667079</v>
+      </c>
+      <c r="G31">
+        <v>0.016769127529507759</v>
+      </c>
+      <c r="H31">
+        <v>0.0062659085300233314</v>
+      </c>
+      <c r="I31">
+        <v>0.27143858024619694</v>
+      </c>
+      <c r="J31">
+        <v>0.0061839851098275545</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="B32">
+        <v>0.22030155137659069</v>
+      </c>
+      <c r="C32">
+        <v>2.2299544769949218e-14</v>
+      </c>
+      <c r="D32">
+        <v>3.7214263455109856e-06</v>
+      </c>
+      <c r="E32">
+        <v>0.016368611405137328</v>
+      </c>
+      <c r="F32">
+        <v>0.035094226525763821</v>
+      </c>
+      <c r="G32">
+        <v>0.0091560156761688414</v>
+      </c>
+      <c r="H32">
+        <v>5.1630294552422815e-10</v>
+      </c>
+      <c r="I32">
+        <v>0.71900551868082263</v>
+      </c>
+      <c r="J32">
+        <v>7.0354392846029725e-05</v>
+      </c>
+      <c r="K32">
+        <v>8</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="B33">
+        <v>0.18208404866565156</v>
+      </c>
+      <c r="C33">
+        <v>2.6727793128464373e-14</v>
+      </c>
+      <c r="D33">
+        <v>0.0012167421688749562</v>
+      </c>
+      <c r="E33">
+        <v>0.0061119992255344036</v>
+      </c>
+      <c r="F33">
+        <v>0.33341474987537312</v>
+      </c>
+      <c r="G33">
+        <v>0.0017908372119414431</v>
+      </c>
+      <c r="H33">
+        <v>0.00010588371529114267</v>
+      </c>
+      <c r="I33">
+        <v>0.4733805191594106</v>
+      </c>
+      <c r="J33">
+        <v>0.0018952199778961749</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="B34">
+        <v>0.28038578701268013</v>
+      </c>
+      <c r="C34">
+        <v>2.6031302103825088e-14</v>
+      </c>
+      <c r="D34">
+        <v>0.0052225136243028393</v>
+      </c>
+      <c r="E34">
+        <v>0.052475080625390337</v>
+      </c>
+      <c r="F34">
+        <v>0.070176869748117571</v>
+      </c>
+      <c r="G34">
+        <v>0.0087878508368242226</v>
+      </c>
+      <c r="H34">
+        <v>5.5041373979082311e-05</v>
+      </c>
+      <c r="I34">
+        <v>0.58283144507157214</v>
+      </c>
+      <c r="J34">
+        <v>6.5411707107483895e-05</v>
+      </c>
+      <c r="K34">
+        <v>8</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="B35">
+        <v>0.27437061823205838</v>
+      </c>
+      <c r="C35">
+        <v>0.24670129103101218</v>
+      </c>
+      <c r="D35">
+        <v>0.0072644402698310373</v>
+      </c>
+      <c r="E35">
+        <v>0.058732834448766071</v>
+      </c>
+      <c r="F35">
+        <v>0.35524620259761058</v>
+      </c>
+      <c r="G35">
+        <v>0.011523143540173458</v>
+      </c>
+      <c r="H35">
+        <v>0.0067064465712716095</v>
+      </c>
+      <c r="I35">
+        <v>0.032373908017430189</v>
+      </c>
+      <c r="J35">
+        <v>0.0070811152918465216</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="B36">
+        <v>0.32015872520358674</v>
+      </c>
+      <c r="C36">
+        <v>2.2224227786511256e-14</v>
+      </c>
+      <c r="D36">
+        <v>0.0070843369007672552</v>
+      </c>
+      <c r="E36">
+        <v>0.021560798606654264</v>
+      </c>
+      <c r="F36">
+        <v>0.056842116503699983</v>
+      </c>
+      <c r="G36">
+        <v>0.0075802144036363293</v>
+      </c>
+      <c r="H36">
+        <v>0.00032609381201859132</v>
+      </c>
+      <c r="I36">
+        <v>0.58636390279650175</v>
+      </c>
+      <c r="J36">
+        <v>8.3811773112812485e-05</v>
+      </c>
+      <c r="K36">
+        <v>8</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>824</v>
+      </c>
+      <c r="B37">
+        <v>0.22340145966397398</v>
+      </c>
+      <c r="C37">
+        <v>0.38036982979438672</v>
+      </c>
+      <c r="D37">
+        <v>0.0096750506693127573</v>
+      </c>
+      <c r="E37">
+        <v>0.039943151627021854</v>
+      </c>
+      <c r="F37">
+        <v>0.21584736913046607</v>
+      </c>
+      <c r="G37">
+        <v>0.024110336860720838</v>
+      </c>
+      <c r="H37">
+        <v>0.0063056688376863122</v>
+      </c>
+      <c r="I37">
+        <v>0.09398739415512794</v>
+      </c>
+      <c r="J37">
+        <v>0.0063597392613033406</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="B38">
+        <v>0.13343474985769979</v>
+      </c>
+      <c r="C38">
+        <v>2.6679942132710664e-14</v>
+      </c>
+      <c r="D38">
+        <v>0.082955760466924058</v>
+      </c>
+      <c r="E38">
+        <v>6.8843746336957694e-05</v>
+      </c>
+      <c r="F38">
+        <v>0.16866077023036799</v>
+      </c>
+      <c r="G38">
+        <v>0.045722252568752224</v>
+      </c>
+      <c r="H38">
+        <v>0.00035126652616405209</v>
+      </c>
+      <c r="I38">
+        <v>0.56880531033595239</v>
+      </c>
+      <c r="J38">
+        <v>1.046267775790972e-06</v>
+      </c>
+      <c r="K38">
+        <v>8</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="B39">
+        <v>0.27850251100169399</v>
+      </c>
+      <c r="C39">
+        <v>0.1361090073380388</v>
+      </c>
+      <c r="D39">
+        <v>0.0067607315360968517</v>
+      </c>
+      <c r="E39">
+        <v>0.047564659631420619</v>
+      </c>
+      <c r="F39">
+        <v>0.43917079123321667</v>
+      </c>
+      <c r="G39">
+        <v>0.016329986319904479</v>
+      </c>
+      <c r="H39">
+        <v>0.0059917568114013489</v>
+      </c>
+      <c r="I39">
+        <v>0.063339524979969558</v>
+      </c>
+      <c r="J39">
+        <v>0.0062310311482575691</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="B40">
+        <v>0.099306840535431845</v>
+      </c>
+      <c r="C40">
+        <v>2.2247516004402736e-14</v>
+      </c>
+      <c r="D40">
+        <v>0.058833703108571743</v>
+      </c>
+      <c r="E40">
+        <v>0.0018483517568469586</v>
+      </c>
+      <c r="F40">
+        <v>0.60627058456321337</v>
+      </c>
+      <c r="G40">
+        <v>0.018373691083040818</v>
+      </c>
+      <c r="H40">
+        <v>0.00092706911658011989</v>
+      </c>
+      <c r="I40">
+        <v>0.21435391856034422</v>
+      </c>
+      <c r="J40">
+        <v>8.5841275948584817e-05</v>
+      </c>
+      <c r="K40">
+        <v>5</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="B41">
+        <v>0.14781311245092818</v>
+      </c>
+      <c r="C41">
+        <v>0.16167090461939657</v>
+      </c>
+      <c r="D41">
+        <v>0.13418390031458155</v>
+      </c>
+      <c r="E41">
+        <v>0.10136472138470771</v>
+      </c>
+      <c r="F41">
+        <v>0.2483718199099704</v>
+      </c>
+      <c r="G41">
+        <v>0.0074634308988835718</v>
+      </c>
+      <c r="H41">
+        <v>0.005366504247949413</v>
+      </c>
+      <c r="I41">
+        <v>0.18561197223879256</v>
+      </c>
+      <c r="J41">
+        <v>0.0081536339347898119</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="B42">
+        <v>0.28464762672362753</v>
+      </c>
+      <c r="C42">
+        <v>0.18166384743347477</v>
+      </c>
+      <c r="D42">
+        <v>0.0065882939780185102</v>
+      </c>
+      <c r="E42">
+        <v>0.015153028088119937</v>
+      </c>
+      <c r="F42">
+        <v>0.15980367492547529</v>
+      </c>
+      <c r="G42">
+        <v>0.0069084904235974381</v>
+      </c>
+      <c r="H42">
+        <v>0.0065816584539904119</v>
+      </c>
+      <c r="I42">
+        <v>0.33077133753781718</v>
+      </c>
+      <c r="J42">
+        <v>0.007882042435879158</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>830</v>
+      </c>
+      <c r="B43">
+        <v>0.2392194425032263</v>
+      </c>
+      <c r="C43">
+        <v>2.466801778784385e-14</v>
+      </c>
+      <c r="D43">
+        <v>0.0013369388404108101</v>
+      </c>
+      <c r="E43">
+        <v>0.01239064079957251</v>
+      </c>
+      <c r="F43">
+        <v>0.29594458096235632</v>
+      </c>
+      <c r="G43">
+        <v>0.011736706061466097</v>
+      </c>
+      <c r="H43">
+        <v>2.1066203675328851e-06</v>
+      </c>
+      <c r="I43">
+        <v>0.43857045966749891</v>
+      </c>
+      <c r="J43">
+        <v>0.00079912454507680402</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="B44">
+        <v>0.26561680405787969</v>
+      </c>
+      <c r="C44">
+        <v>0.1766047296400125</v>
+      </c>
+      <c r="D44">
+        <v>0.006350895999899131</v>
+      </c>
+      <c r="E44">
+        <v>0.024759495276740987</v>
+      </c>
+      <c r="F44">
+        <v>0.26564750481461447</v>
+      </c>
+      <c r="G44">
+        <v>0.0095658548346741704</v>
+      </c>
+      <c r="H44">
+        <v>0.0063098353917728518</v>
+      </c>
+      <c r="I44">
+        <v>0.23669445898282337</v>
+      </c>
+      <c r="J44">
+        <v>0.0084504210015829851</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="B45">
+        <v>0.26801735393207288</v>
+      </c>
+      <c r="C45">
+        <v>0.29637612617532211</v>
+      </c>
+      <c r="D45">
+        <v>0.016940687879323672</v>
+      </c>
+      <c r="E45">
+        <v>0.017785699862115052</v>
+      </c>
+      <c r="F45">
+        <v>0.28285444490753964</v>
+      </c>
+      <c r="G45">
+        <v>0.0064080105449012383</v>
+      </c>
+      <c r="H45">
+        <v>0.0062976025197544142</v>
+      </c>
+      <c r="I45">
+        <v>0.073019934287509455</v>
+      </c>
+      <c r="J45">
+        <v>0.032300139891461542</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>833</v>
+      </c>
+      <c r="B46">
+        <v>0.36916187148993135</v>
+      </c>
+      <c r="C46">
+        <v>0.28186405228856376</v>
+      </c>
+      <c r="D46">
+        <v>0.0074081197815081623</v>
+      </c>
+      <c r="E46">
+        <v>0.011679264121830115</v>
+      </c>
+      <c r="F46">
+        <v>0.29391325316830225</v>
+      </c>
+      <c r="G46">
+        <v>0.0086896352899730606</v>
+      </c>
+      <c r="H46">
+        <v>0.0072055676978078206</v>
+      </c>
+      <c r="I46">
+        <v>0.01054273261253998</v>
+      </c>
+      <c r="J46">
+        <v>0.0095355035495436179</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="B47">
+        <v>0.32045735236617462</v>
+      </c>
+      <c r="C47">
+        <v>0.14513424848936257</v>
+      </c>
+      <c r="D47">
+        <v>0.0065201804170023888</v>
+      </c>
+      <c r="E47">
+        <v>0.014078152911113887</v>
+      </c>
+      <c r="F47">
+        <v>0.2426995655586347</v>
+      </c>
+      <c r="G47">
+        <v>0.010940158170134946</v>
+      </c>
+      <c r="H47">
+        <v>0.0062566316983357489</v>
+      </c>
+      <c r="I47">
+        <v>0.24681983238533367</v>
+      </c>
+      <c r="J47">
+        <v>0.0070938780039074339</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="B48">
+        <v>0.27493904033175492</v>
+      </c>
+      <c r="C48">
+        <v>0.26073958611379572</v>
+      </c>
+      <c r="D48">
+        <v>0.098813307902239217</v>
+      </c>
+      <c r="E48">
+        <v>0.012416025138073442</v>
+      </c>
+      <c r="F48">
+        <v>0.21944495282783291</v>
+      </c>
+      <c r="G48">
+        <v>0.0066163004716039715</v>
+      </c>
+      <c r="H48">
+        <v>0.0062616236043847749</v>
+      </c>
+      <c r="I48">
+        <v>0.11213966439054779</v>
+      </c>
+      <c r="J48">
+        <v>0.0086294992197672692</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>836</v>
+      </c>
+      <c r="B49">
+        <v>0.3799881934844383</v>
+      </c>
+      <c r="C49">
+        <v>0.28166672541773669</v>
+      </c>
+      <c r="D49">
+        <v>0.066775624357836155</v>
+      </c>
+      <c r="E49">
+        <v>0.026841180504989841</v>
+      </c>
+      <c r="F49">
+        <v>0.17004499533094367</v>
+      </c>
+      <c r="G49">
+        <v>0.0075645772365916198</v>
+      </c>
+      <c r="H49">
+        <v>0.0063042198016710158</v>
+      </c>
+      <c r="I49">
+        <v>0.053136862843652516</v>
+      </c>
+      <c r="J49">
+        <v>0.0076776210221401004</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="B50">
+        <v>0.28501660378806004</v>
+      </c>
+      <c r="C50">
+        <v>0.29870561080990254</v>
+      </c>
+      <c r="D50">
+        <v>0.063466669245620902</v>
+      </c>
+      <c r="E50">
+        <v>0.017639979890927519</v>
+      </c>
+      <c r="F50">
+        <v>0.26015307671695409</v>
+      </c>
+      <c r="G50">
+        <v>0.0070051715147290694</v>
+      </c>
+      <c r="H50">
+        <v>0.0079244767944762068</v>
+      </c>
+      <c r="I50">
+        <v>0.053320199485992384</v>
+      </c>
+      <c r="J50">
+        <v>0.0067682117533372161</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="B51">
+        <v>0.40757623634728407</v>
+      </c>
+      <c r="C51">
+        <v>0.24204028901380381</v>
+      </c>
+      <c r="D51">
+        <v>0.014864212919722911</v>
+      </c>
+      <c r="E51">
+        <v>0.041222982452351231</v>
+      </c>
+      <c r="F51">
+        <v>0.25011537787828048</v>
+      </c>
+      <c r="G51">
+        <v>0.0072246375738711554</v>
+      </c>
+      <c r="H51">
+        <v>0.017816980550062655</v>
+      </c>
+      <c r="I51">
+        <v>0.012100893816858013</v>
+      </c>
+      <c r="J51">
+        <v>0.0070383894477654132</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="B52">
+        <v>0.24761892734808766</v>
+      </c>
+      <c r="C52">
+        <v>0.20102624780839398</v>
+      </c>
+      <c r="D52">
+        <v>0.084680239677130981</v>
+      </c>
+      <c r="E52">
+        <v>0.012413121060708441</v>
+      </c>
+      <c r="F52">
+        <v>0.32775504119665533</v>
+      </c>
+      <c r="G52">
+        <v>0.0089075335653299292</v>
+      </c>
+      <c r="H52">
+        <v>0.0063495321007737172</v>
+      </c>
+      <c r="I52">
+        <v>0.10494837395724874</v>
+      </c>
+      <c r="J52">
+        <v>0.0063009832856711322</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="B53">
+        <v>0.28718196554153513</v>
+      </c>
+      <c r="C53">
+        <v>0.1817336633155231</v>
+      </c>
+      <c r="D53">
+        <v>0.013584096898821101</v>
+      </c>
+      <c r="E53">
+        <v>0.0086083712560851428</v>
+      </c>
+      <c r="F53">
+        <v>0.45361094070205454</v>
+      </c>
+      <c r="G53">
+        <v>0.0090822512141580485</v>
+      </c>
+      <c r="H53">
+        <v>0.0068149163692314612</v>
+      </c>
+      <c r="I53">
+        <v>0.032220721858775649</v>
+      </c>
+      <c r="J53">
+        <v>0.007163072843815778</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="B54">
+        <v>0.39372921666003718</v>
+      </c>
+      <c r="C54">
+        <v>0.19475556962460852</v>
+      </c>
+      <c r="D54">
+        <v>0.0092915441229037641</v>
+      </c>
+      <c r="E54">
+        <v>0.013168639282807322</v>
+      </c>
+      <c r="F54">
+        <v>0.32922187954572452</v>
+      </c>
+      <c r="G54">
+        <v>0.01072934469296005</v>
+      </c>
+      <c r="H54">
+        <v>0.0067638685522887713</v>
+      </c>
+      <c r="I54">
+        <v>0.035067427485240221</v>
+      </c>
+      <c r="J54">
+        <v>0.0072725100334295823</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="B55">
+        <v>0.30408399149108273</v>
+      </c>
+      <c r="C55">
+        <v>0.30290186089052173</v>
+      </c>
+      <c r="D55">
+        <v>0.041036030753677531</v>
+      </c>
+      <c r="E55">
+        <v>0.020381755031411701</v>
+      </c>
+      <c r="F55">
+        <v>0.28680965022818622</v>
+      </c>
+      <c r="G55">
+        <v>0.0085282733518678017</v>
+      </c>
+      <c r="H55">
+        <v>0.0066835821237811463</v>
+      </c>
+      <c r="I55">
+        <v>0.022736489448987693</v>
+      </c>
+      <c r="J55">
+        <v>0.00683836668048355</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="B56">
+        <v>0.30633762420349253</v>
+      </c>
+      <c r="C56">
+        <v>0.1676854102422923</v>
+      </c>
+      <c r="D56">
+        <v>0.0095740801140974663</v>
+      </c>
+      <c r="E56">
+        <v>0.022025356852337523</v>
+      </c>
+      <c r="F56">
+        <v>0.42509462534374837</v>
+      </c>
+      <c r="G56">
+        <v>0.0075501609419254285</v>
+      </c>
+      <c r="H56">
+        <v>0.0067328354536235115</v>
+      </c>
+      <c r="I56">
+        <v>0.047738369331340742</v>
+      </c>
+      <c r="J56">
+        <v>0.0072615375171421904</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="B57">
+        <v>0.33564484122285942</v>
+      </c>
+      <c r="C57">
+        <v>0.20797765966528375</v>
+      </c>
+      <c r="D57">
+        <v>0.012128921055147462</v>
+      </c>
+      <c r="E57">
+        <v>0.030664519808257868</v>
+      </c>
+      <c r="F57">
+        <v>0.36880745225208689</v>
+      </c>
+      <c r="G57">
+        <v>0.0075474553310353612</v>
+      </c>
+      <c r="H57">
+        <v>0.0067755746629226885</v>
+      </c>
+      <c r="I57">
+        <v>0.023327269814670818</v>
+      </c>
+      <c r="J57">
+        <v>0.0071263061877354632</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="B58">
+        <v>0.27362432177766383</v>
+      </c>
+      <c r="C58">
+        <v>0.31586875403073461</v>
+      </c>
+      <c r="D58">
+        <v>0.021932153151940414</v>
+      </c>
+      <c r="E58">
+        <v>0.10756109273909127</v>
+      </c>
+      <c r="F58">
+        <v>0.22772982626326593</v>
+      </c>
+      <c r="G58">
+        <v>0.016434151086252288</v>
+      </c>
+      <c r="H58">
+        <v>0.0062945058072435322</v>
+      </c>
+      <c r="I58">
+        <v>0.024033738953910432</v>
+      </c>
+      <c r="J58">
+        <v>0.0065214561898975744</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="B59">
+        <v>0.27912132547873691</v>
+      </c>
+      <c r="C59">
+        <v>0.23468309528311007</v>
+      </c>
+      <c r="D59">
+        <v>0.0075878538626751139</v>
+      </c>
+      <c r="E59">
+        <v>0.011455611022067555</v>
+      </c>
+      <c r="F59">
+        <v>0.43376881945902229</v>
+      </c>
+      <c r="G59">
+        <v>0.0073963321311397365</v>
+      </c>
+      <c r="H59">
+        <v>0.0073108559797578684</v>
+      </c>
+      <c r="I59">
+        <v>0.0081804138651742769</v>
+      </c>
+      <c r="J59">
+        <v>0.010495692918316238</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>847</v>
+      </c>
+      <c r="B60">
+        <v>0.33724711464438512</v>
+      </c>
+      <c r="C60">
+        <v>0.23663253195597847</v>
+      </c>
+      <c r="D60">
+        <v>0.0077256834340699515</v>
+      </c>
+      <c r="E60">
+        <v>0.059913064965796702</v>
+      </c>
+      <c r="F60">
+        <v>0.3003592731261599</v>
+      </c>
+      <c r="G60">
+        <v>0.0082882694635643805</v>
+      </c>
+      <c r="H60">
+        <v>0.0066338507691452216</v>
+      </c>
+      <c r="I60">
+        <v>0.036087836992431586</v>
+      </c>
+      <c r="J60">
+        <v>0.0071123746484688328</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="B61">
+        <v>0.23974943941750132</v>
+      </c>
+      <c r="C61">
+        <v>2.229148114157646e-14</v>
+      </c>
+      <c r="D61">
+        <v>0.011594823816854038</v>
+      </c>
+      <c r="E61">
+        <v>0.017734685982063458</v>
+      </c>
+      <c r="F61">
+        <v>0.17831154158364715</v>
+      </c>
+      <c r="G61">
+        <v>0.0031594435024062681</v>
+      </c>
+      <c r="H61">
+        <v>0.00087535032864178284</v>
+      </c>
+      <c r="I61">
+        <v>0.54821673610537813</v>
+      </c>
+      <c r="J61">
+        <v>0.0003579792634855517</v>
+      </c>
+      <c r="K61">
+        <v>8</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="B62">
+        <v>0.33479379491432709</v>
+      </c>
+      <c r="C62">
+        <v>2.7097879587480307e-14</v>
+      </c>
+      <c r="D62">
+        <v>0.002076439154738991</v>
+      </c>
+      <c r="E62">
+        <v>0.13075458213060348</v>
+      </c>
+      <c r="F62">
+        <v>0.14973476614093928</v>
+      </c>
+      <c r="G62">
+        <v>0.0053826585869728126</v>
+      </c>
+      <c r="H62">
+        <v>0.00011742232518572931</v>
+      </c>
+      <c r="I62">
+        <v>0.37662290888658378</v>
+      </c>
+      <c r="J62">
+        <v>0.00051742786062172633</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>850</v>
+      </c>
+      <c r="B63">
+        <v>0.068965731605296787</v>
+      </c>
+      <c r="C63">
+        <v>2.2354633610169925e-14</v>
+      </c>
+      <c r="D63">
+        <v>0.84304266070633549</v>
+      </c>
+      <c r="E63">
+        <v>0.00054054209162646843</v>
+      </c>
+      <c r="F63">
+        <v>0.037191347143912874</v>
+      </c>
+      <c r="G63">
+        <v>7.0568694412534208e-05</v>
+      </c>
+      <c r="H63">
+        <v>1.5920508776986338e-05</v>
+      </c>
+      <c r="I63">
+        <v>0.0083784228411683502</v>
+      </c>
+      <c r="J63">
+        <v>0.041794806408448383</v>
+      </c>
+      <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="L63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="B64">
+        <v>0.08966689161963512</v>
+      </c>
+      <c r="C64">
+        <v>2.2363226264347127e-14</v>
+      </c>
+      <c r="D64">
+        <v>0.82866831947893294</v>
+      </c>
+      <c r="E64">
+        <v>0.00042289621555281309</v>
+      </c>
+      <c r="F64">
+        <v>0.060043696396488336</v>
+      </c>
+      <c r="G64">
+        <v>0.00010868292120726554</v>
+      </c>
+      <c r="H64">
+        <v>2.2880181258679325e-05</v>
+      </c>
+      <c r="I64">
+        <v>0.017319810787146304</v>
+      </c>
+      <c r="J64">
+        <v>0.0037468223997561244</v>
+      </c>
+      <c r="K64">
+        <v>3</v>
+      </c>
+      <c r="L64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>852</v>
+      </c>
+      <c r="B65">
+        <v>0.20689851381681665</v>
+      </c>
+      <c r="C65">
+        <v>0.12084987024580791</v>
+      </c>
+      <c r="D65">
+        <v>0.38174946603599502</v>
+      </c>
+      <c r="E65">
+        <v>0.017730179958885931</v>
+      </c>
+      <c r="F65">
+        <v>0.17202192549134487</v>
+      </c>
+      <c r="G65">
+        <v>0.0055736416354094601</v>
+      </c>
+      <c r="H65">
+        <v>0.0052769338538771592</v>
+      </c>
+      <c r="I65">
+        <v>0.073706406032828589</v>
+      </c>
+      <c r="J65">
+        <v>0.016193062929034462</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>853</v>
+      </c>
+      <c r="B66">
+        <v>0.065261096266693047</v>
+      </c>
+      <c r="C66">
+        <v>2.2375797206270297e-14</v>
+      </c>
+      <c r="D66">
+        <v>0.84244185405757543</v>
+      </c>
+      <c r="E66">
+        <v>0.0005582705122832251</v>
+      </c>
+      <c r="F66">
+        <v>0.046591521077526468</v>
+      </c>
+      <c r="G66">
+        <v>0.00024883450077055282</v>
+      </c>
+      <c r="H66">
+        <v>0.0034969509206270984</v>
+      </c>
+      <c r="I66">
+        <v>0.040791156223133271</v>
+      </c>
+      <c r="J66">
+        <v>0.00061031644136853283</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="B67">
+        <v>0.093764649303047648</v>
+      </c>
+      <c r="C67">
+        <v>2.2316586888426883e-14</v>
+      </c>
+      <c r="D67">
+        <v>0.85128935442693354</v>
+      </c>
+      <c r="E67">
+        <v>0.00049357537884811304</v>
+      </c>
+      <c r="F67">
+        <v>0.040809617928870785</v>
+      </c>
+      <c r="G67">
+        <v>0.00024631806155237418</v>
+      </c>
+      <c r="H67">
+        <v>0.0018617992908502013</v>
+      </c>
+      <c r="I67">
+        <v>0.011346706225887682</v>
+      </c>
+      <c r="J67">
+        <v>0.00018797938398744168</v>
+      </c>
+      <c r="K67">
+        <v>3</v>
+      </c>
+      <c r="L67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="B68">
+        <v>0.10911952121422255</v>
+      </c>
+      <c r="C68">
+        <v>2.2387228954896114e-14</v>
+      </c>
+      <c r="D68">
+        <v>0.80017575119729367</v>
+      </c>
+      <c r="E68">
+        <v>0.0017859466031565879</v>
+      </c>
+      <c r="F68">
+        <v>0.065523502367298619</v>
+      </c>
+      <c r="G68">
+        <v>8.2445015269842059e-05</v>
+      </c>
+      <c r="H68">
+        <v>2.3023621683020797e-05</v>
+      </c>
+      <c r="I68">
+        <v>0.022063435024753431</v>
+      </c>
+      <c r="J68">
+        <v>0.0012263749562998647</v>
+      </c>
+      <c r="K68">
+        <v>3</v>
+      </c>
+      <c r="L68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>856</v>
+      </c>
+      <c r="B69">
+        <v>0.071752607001732416</v>
+      </c>
+      <c r="C69">
+        <v>2.231178777978871e-14</v>
+      </c>
+      <c r="D69">
+        <v>0.8546350541769514</v>
+      </c>
+      <c r="E69">
+        <v>0.0012928142392597598</v>
+      </c>
+      <c r="F69">
+        <v>0.058074602684534918</v>
+      </c>
+      <c r="G69">
+        <v>4.6963117217486928e-05</v>
+      </c>
+      <c r="H69">
+        <v>0.00010491483640000243</v>
+      </c>
+      <c r="I69">
+        <v>0.0021632318994270882</v>
+      </c>
+      <c r="J69">
+        <v>0.011929812044454527</v>
+      </c>
+      <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="L69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>857</v>
+      </c>
+      <c r="B70">
+        <v>0.19730977087401411</v>
+      </c>
+      <c r="C70">
+        <v>2.2289668727146006e-14</v>
+      </c>
+      <c r="D70">
+        <v>0.62642488418366427</v>
+      </c>
+      <c r="E70">
+        <v>0.014048790767666507</v>
+      </c>
+      <c r="F70">
+        <v>0.13913748622100941</v>
+      </c>
+      <c r="G70">
+        <v>0.00038883889300709852</v>
+      </c>
+      <c r="H70">
+        <v>1.1425432376318546e-05</v>
+      </c>
+      <c r="I70">
+        <v>0.019023391371022744</v>
+      </c>
+      <c r="J70">
+        <v>0.0036554122572173657</v>
+      </c>
+      <c r="K70">
+        <v>3</v>
+      </c>
+      <c r="L70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>858</v>
+      </c>
+      <c r="B71">
+        <v>0.10419071997160458</v>
+      </c>
+      <c r="C71">
+        <v>2.2366469277507615e-14</v>
+      </c>
+      <c r="D71">
+        <v>0.83327574574601537</v>
+      </c>
+      <c r="E71">
+        <v>0.0023466468845216759</v>
+      </c>
+      <c r="F71">
+        <v>0.033849323561142598</v>
+      </c>
+      <c r="G71">
+        <v>0.00035809264557889905</v>
+      </c>
+      <c r="H71">
+        <v>0.013429301272074519</v>
+      </c>
+      <c r="I71">
+        <v>0.012334919670228622</v>
+      </c>
+      <c r="J71">
+        <v>0.00021525024881140128</v>
+      </c>
+      <c r="K71">
+        <v>3</v>
+      </c>
+      <c r="L71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>859</v>
+      </c>
+      <c r="B72">
+        <v>0.096335586381278454</v>
+      </c>
+      <c r="C72">
+        <v>2.2410456426593153e-14</v>
+      </c>
+      <c r="D72">
+        <v>0.81296173420902629</v>
+      </c>
+      <c r="E72">
+        <v>0.00058481945562276184</v>
+      </c>
+      <c r="F72">
+        <v>0.05824623470550163</v>
+      </c>
+      <c r="G72">
+        <v>0.00032950952424582353</v>
+      </c>
+      <c r="H72">
+        <v>0.00012842057542056904</v>
+      </c>
+      <c r="I72">
+        <v>0.031232663824783864</v>
+      </c>
+      <c r="J72">
+        <v>0.00018103132409805759</v>
+      </c>
+      <c r="K72">
+        <v>3</v>
+      </c>
+      <c r="L72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="B73">
+        <v>0.15294727507855954</v>
+      </c>
+      <c r="C73">
+        <v>2.2395754011641645e-14</v>
+      </c>
+      <c r="D73">
+        <v>0.78387372131417254</v>
+      </c>
+      <c r="E73">
+        <v>0.0012360636085058203</v>
+      </c>
+      <c r="F73">
+        <v>0.041257428796028534</v>
+      </c>
+      <c r="G73">
+        <v>0.00058546642228260437</v>
+      </c>
+      <c r="H73">
+        <v>0.0062125358470692497</v>
+      </c>
+      <c r="I73">
+        <v>0.013799830026892541</v>
+      </c>
+      <c r="J73">
+        <v>8.7678906466730449e-05</v>
+      </c>
+      <c r="K73">
+        <v>3</v>
+      </c>
+      <c r="L73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="B74">
+        <v>0.094273725697669661</v>
+      </c>
+      <c r="C74">
+        <v>2.2282747416471607e-14</v>
+      </c>
+      <c r="D74">
+        <v>0.8642970908591282</v>
+      </c>
+      <c r="E74">
+        <v>0.00039612591541187276</v>
+      </c>
+      <c r="F74">
+        <v>0.032577512722080294</v>
+      </c>
+      <c r="G74">
+        <v>4.3779730111491009e-05</v>
+      </c>
+      <c r="H74">
+        <v>0.0022355531470224124</v>
+      </c>
+      <c r="I74">
+        <v>0.0032011529199828643</v>
+      </c>
+      <c r="J74">
+        <v>0.0029750590085708111</v>
+      </c>
+      <c r="K74">
+        <v>3</v>
+      </c>
+      <c r="L74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="B75">
+        <v>0.36366792186371627</v>
+      </c>
+      <c r="C75">
+        <v>2.3949559750755451e-14</v>
+      </c>
+      <c r="D75">
+        <v>0.069801523932131376</v>
+      </c>
+      <c r="E75">
+        <v>0.00086913261156320025</v>
+      </c>
+      <c r="F75">
+        <v>0.028923876922380569</v>
+      </c>
+      <c r="G75">
+        <v>0.0023004760408124308</v>
+      </c>
+      <c r="H75">
+        <v>0.17634283208040721</v>
+      </c>
+      <c r="I75">
+        <v>0.35808266844143832</v>
+      </c>
+      <c r="J75">
+        <v>1.1568107526568172e-05</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="B76">
+        <v>0.26304721005324411</v>
+      </c>
+      <c r="C76">
+        <v>2.565634197147171e-14</v>
+      </c>
+      <c r="D76">
+        <v>0.015757478216537994</v>
+      </c>
+      <c r="E76">
+        <v>0.034385494622579907</v>
+      </c>
+      <c r="F76">
+        <v>0.203922183632507</v>
+      </c>
+      <c r="G76">
+        <v>0.0056210447037205362</v>
+      </c>
+      <c r="H76">
+        <v>0.0023364841208766778</v>
+      </c>
+      <c r="I76">
+        <v>0.47468113321980032</v>
+      </c>
+      <c r="J76">
+        <v>0.00024897143070773235</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="B77">
+        <v>0.29133197967821534</v>
+      </c>
+      <c r="C77">
+        <v>0.20916873556784879</v>
+      </c>
+      <c r="D77">
+        <v>0.049182654586625373</v>
+      </c>
+      <c r="E77">
+        <v>0.035706397560931052</v>
+      </c>
+      <c r="F77">
+        <v>0.2325944716605268</v>
+      </c>
+      <c r="G77">
+        <v>0.0099403005113382643</v>
+      </c>
+      <c r="H77">
+        <v>0.0061572933846737567</v>
+      </c>
+      <c r="I77">
+        <v>0.15976119628110147</v>
+      </c>
+      <c r="J77">
+        <v>0.0061569707687390597</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="B78">
+        <v>0.23764068109925621</v>
+      </c>
+      <c r="C78">
+        <v>0.17544689301762423</v>
+      </c>
+      <c r="D78">
+        <v>0.078851132396095883</v>
+      </c>
+      <c r="E78">
+        <v>0.014035096005284084</v>
+      </c>
+      <c r="F78">
+        <v>0.24768019068709524</v>
+      </c>
+      <c r="G78">
+        <v>0.01397204295887795</v>
+      </c>
+      <c r="H78">
+        <v>0.0060935434490359663</v>
+      </c>
+      <c r="I78">
+        <v>0.22037864367868926</v>
+      </c>
+      <c r="J78">
+        <v>0.0059017767080412177</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>866</v>
+      </c>
+      <c r="B79">
+        <v>0.09748292389441994</v>
+      </c>
+      <c r="C79">
+        <v>2.2400125165386195e-14</v>
+      </c>
+      <c r="D79">
+        <v>0.00014526860603759708</v>
+      </c>
+      <c r="E79">
+        <v>0.81114658961158537</v>
+      </c>
+      <c r="F79">
+        <v>0.04364846594782306</v>
+      </c>
+      <c r="G79">
+        <v>0.0006899687611355038</v>
+      </c>
+      <c r="H79">
+        <v>0.0016172215406297392</v>
+      </c>
+      <c r="I79">
+        <v>0.019999224887619439</v>
+      </c>
+      <c r="J79">
+        <v>0.02527033675072703</v>
+      </c>
+      <c r="K79">
+        <v>4</v>
+      </c>
+      <c r="L79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="B80">
+        <v>0.11002124378644748</v>
+      </c>
+      <c r="C80">
+        <v>2.229969918883879e-14</v>
+      </c>
+      <c r="D80">
+        <v>0.0031977178772093044</v>
+      </c>
+      <c r="E80">
+        <v>0.74461362980032553</v>
+      </c>
+      <c r="F80">
+        <v>0.11420558091525244</v>
+      </c>
+      <c r="G80">
+        <v>0.0061367988812632791</v>
+      </c>
+      <c r="H80">
+        <v>0.00046220363319917067</v>
+      </c>
+      <c r="I80">
+        <v>0.01912625457242462</v>
+      </c>
+      <c r="J80">
+        <v>0.0022365705338559167</v>
+      </c>
+      <c r="K80">
+        <v>4</v>
+      </c>
+      <c r="L80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="B81">
+        <v>0.11032191543153647</v>
+      </c>
+      <c r="C81">
+        <v>2.2438728477257871e-14</v>
+      </c>
+      <c r="D81">
+        <v>0.0012016532634955689</v>
+      </c>
+      <c r="E81">
+        <v>0.71339416592248783</v>
+      </c>
+      <c r="F81">
+        <v>0.11083483218853601</v>
+      </c>
+      <c r="G81">
+        <v>0.00063576170472355391</v>
+      </c>
+      <c r="H81">
+        <v>0.00012651553954964439</v>
+      </c>
+      <c r="I81">
+        <v>0.037849125720246554</v>
+      </c>
+      <c r="J81">
+        <v>0.025636030229401939</v>
+      </c>
+      <c r="K81">
+        <v>4</v>
+      </c>
+      <c r="L81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>869</v>
+      </c>
+      <c r="B82">
+        <v>0.14269499346873823</v>
+      </c>
+      <c r="C82">
+        <v>2.2301096796026995e-14</v>
+      </c>
+      <c r="D82">
+        <v>0.0031327531507081966</v>
+      </c>
+      <c r="E82">
+        <v>0.72809508611302343</v>
+      </c>
+      <c r="F82">
+        <v>0.075040443568863982</v>
+      </c>
+      <c r="G82">
+        <v>0.0015920274121380461</v>
+      </c>
+      <c r="H82">
+        <v>0.0098215408521538962</v>
+      </c>
+      <c r="I82">
+        <v>0.033535511654564587</v>
+      </c>
+      <c r="J82">
+        <v>0.0060876437797872437</v>
+      </c>
+      <c r="K82">
+        <v>4</v>
+      </c>
+      <c r="L82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="B83">
+        <v>0.1238606157236487</v>
+      </c>
+      <c r="C83">
+        <v>2.2241279869889884e-14</v>
+      </c>
+      <c r="D83">
+        <v>0.011299896915295092</v>
+      </c>
+      <c r="E83">
+        <v>0.70081196453631056</v>
+      </c>
+      <c r="F83">
+        <v>0.13463826549349281</v>
+      </c>
+      <c r="G83">
+        <v>0.0016096251636670809</v>
+      </c>
+      <c r="H83">
+        <v>0.00032609998540176702</v>
+      </c>
+      <c r="I83">
+        <v>0.023824419577162616</v>
+      </c>
+      <c r="J83">
+        <v>0.0036291126049990629</v>
+      </c>
+      <c r="K83">
+        <v>4</v>
+      </c>
+      <c r="L83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>871</v>
+      </c>
+      <c r="B84">
+        <v>0.21319160038096854</v>
+      </c>
+      <c r="C84">
+        <v>2.2247987148798724e-14</v>
+      </c>
+      <c r="D84">
+        <v>0.0076938706671609344</v>
+      </c>
+      <c r="E84">
+        <v>0.60109424483729434</v>
+      </c>
+      <c r="F84">
+        <v>0.077639820602292769</v>
+      </c>
+      <c r="G84">
+        <v>0.0014560288599868197</v>
+      </c>
+      <c r="H84">
+        <v>0.058103381128699991</v>
+      </c>
+      <c r="I84">
+        <v>0.037211905256002181</v>
+      </c>
+      <c r="J84">
+        <v>0.0036091482675722317</v>
+      </c>
+      <c r="K84">
+        <v>4</v>
+      </c>
+      <c r="L84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
+        <v>872</v>
+      </c>
+      <c r="B85">
+        <v>0.065479364851002086</v>
+      </c>
+      <c r="C85">
+        <v>2.2375962884972638e-14</v>
+      </c>
+      <c r="D85">
+        <v>0.0019848915665894068</v>
+      </c>
+      <c r="E85">
+        <v>0.81002805654209964</v>
+      </c>
+      <c r="F85">
+        <v>0.097448785445289843</v>
+      </c>
+      <c r="G85">
+        <v>0.0014258961769592973</v>
+      </c>
+      <c r="H85">
+        <v>0.00017690362406698744</v>
+      </c>
+      <c r="I85">
+        <v>0.021833697581051057</v>
+      </c>
+      <c r="J85">
+        <v>0.0016224042129192998</v>
+      </c>
+      <c r="K85">
+        <v>4</v>
+      </c>
+      <c r="L85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="B86">
+        <v>0.054080829834369085</v>
+      </c>
+      <c r="C86">
+        <v>2.2456025947310117e-14</v>
+      </c>
+      <c r="D86">
+        <v>0.00028322306656635256</v>
+      </c>
+      <c r="E86">
+        <v>0.78693223044451599</v>
+      </c>
+      <c r="F86">
+        <v>0.091412854967048499</v>
+      </c>
+      <c r="G86">
+        <v>0.00131727726713451</v>
+      </c>
+      <c r="H86">
+        <v>0.032683536295763684</v>
+      </c>
+      <c r="I86">
+        <v>0.017032229276132967</v>
+      </c>
+      <c r="J86">
+        <v>0.016257818848446414</v>
+      </c>
+      <c r="K86">
+        <v>4</v>
+      </c>
+      <c r="L86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="B87">
+        <v>0.21167959103568676</v>
+      </c>
+      <c r="C87">
+        <v>2.2287439310577135e-14</v>
+      </c>
+      <c r="D87">
+        <v>0.010684375477034762</v>
+      </c>
+      <c r="E87">
+        <v>0.4008924281154525</v>
+      </c>
+      <c r="F87">
+        <v>0.15810748153964074</v>
+      </c>
+      <c r="G87">
+        <v>0.0026487217496037945</v>
+      </c>
+      <c r="H87">
+        <v>0.00023494858835270582</v>
+      </c>
+      <c r="I87">
+        <v>0.21500554340582276</v>
+      </c>
+      <c r="J87">
+        <v>0.00074691008838371489</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="B88">
+        <v>0.2377710485741748</v>
+      </c>
+      <c r="C88">
+        <v>0.13363948899778014</v>
+      </c>
+      <c r="D88">
+        <v>0.016672973106696572</v>
+      </c>
+      <c r="E88">
+        <v>0.19250387921804596</v>
+      </c>
+      <c r="F88">
+        <v>0.24601579688679526</v>
+      </c>
+      <c r="G88">
+        <v>0.01075569393254594</v>
+      </c>
+      <c r="H88">
+        <v>0.0059071813568412519</v>
+      </c>
+      <c r="I88">
+        <v>0.1510592368937908</v>
+      </c>
+      <c r="J88">
+        <v>0.0056747010333291475</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="B89">
+        <v>0.22556040742126693</v>
+      </c>
+      <c r="C89">
+        <v>2.4655185343647899e-14</v>
+      </c>
+      <c r="D89">
+        <v>0.0091078268637903633</v>
+      </c>
+      <c r="E89">
+        <v>0.2104358021885806</v>
+      </c>
+      <c r="F89">
+        <v>0.22508878418876588</v>
+      </c>
+      <c r="G89">
+        <v>0.010620496523584584</v>
+      </c>
+      <c r="H89">
+        <v>0.001148070700920647</v>
+      </c>
+      <c r="I89">
+        <v>0.31762905229518934</v>
+      </c>
+      <c r="J89">
+        <v>0.00040955981787703518</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="B90">
+        <v>0.18232555178589829</v>
+      </c>
+      <c r="C90">
+        <v>0.14270802795583729</v>
+      </c>
+      <c r="D90">
+        <v>0.0068164974696517024</v>
+      </c>
+      <c r="E90">
+        <v>0.095330547017369177</v>
+      </c>
+      <c r="F90">
+        <v>0.27629899009882142</v>
+      </c>
+      <c r="G90">
+        <v>0.015309542790748172</v>
+      </c>
+      <c r="H90">
+        <v>0.0057182346327765881</v>
+      </c>
+      <c r="I90">
+        <v>0.26952026974525078</v>
+      </c>
+      <c r="J90">
+        <v>0.0059723385036466164</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="s">
+        <v>878</v>
+      </c>
+      <c r="B91">
+        <v>0.17936803937884757</v>
+      </c>
+      <c r="C91">
+        <v>0.15541205623136567</v>
+      </c>
+      <c r="D91">
+        <v>0.0061413416465196892</v>
+      </c>
+      <c r="E91">
+        <v>0.067181380778549987</v>
+      </c>
+      <c r="F91">
+        <v>0.12518239578224391</v>
+      </c>
+      <c r="G91">
+        <v>0.012164622898091407</v>
+      </c>
+      <c r="H91">
+        <v>0.0060668855832619649</v>
+      </c>
+      <c r="I91">
+        <v>0.44220506290842293</v>
+      </c>
+      <c r="J91">
+        <v>0.0062782147926968889</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="B92">
+        <v>0.24259043295942692</v>
+      </c>
+      <c r="C92">
+        <v>0.14435854573845358</v>
+      </c>
+      <c r="D92">
+        <v>0.013703815845606711</v>
+      </c>
+      <c r="E92">
+        <v>0.02466527227870418</v>
+      </c>
+      <c r="F92">
+        <v>0.46330600551550144</v>
+      </c>
+      <c r="G92">
+        <v>0.0099474618229638771</v>
+      </c>
+      <c r="H92">
+        <v>0.0062223546256951227</v>
+      </c>
+      <c r="I92">
+        <v>0.08896072117055763</v>
+      </c>
+      <c r="J92">
+        <v>0.0062453900430906014</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
+      <c r="L92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="B93">
+        <v>0.18936153376415832</v>
+      </c>
+      <c r="C93">
+        <v>0.16214259780076759</v>
+      </c>
+      <c r="D93">
+        <v>0.027789695580027859</v>
+      </c>
+      <c r="E93">
+        <v>0.027862240850515856</v>
+      </c>
+      <c r="F93">
+        <v>0.50976070792115391</v>
+      </c>
+      <c r="G93">
+        <v>0.012888599612046246</v>
+      </c>
+      <c r="H93">
+        <v>0.0069142682571383517</v>
+      </c>
+      <c r="I93">
+        <v>0.05701712037961474</v>
+      </c>
+      <c r="J93">
+        <v>0.0062632358345771693</v>
+      </c>
+      <c r="K93">
+        <v>5</v>
+      </c>
+      <c r="L93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="s">
+        <v>881</v>
+      </c>
+      <c r="B94">
+        <v>0.25730508409679292</v>
+      </c>
+      <c r="C94">
+        <v>0.1818314920884011</v>
+      </c>
+      <c r="D94">
+        <v>0.011607096145365243</v>
+      </c>
+      <c r="E94">
+        <v>0.092989786257221221</v>
+      </c>
+      <c r="F94">
+        <v>0.30402232702600301</v>
+      </c>
+      <c r="G94">
+        <v>0.010826410160293403</v>
+      </c>
+      <c r="H94">
+        <v>0.0060361512058563771</v>
+      </c>
+      <c r="I94">
+        <v>0.12919913289902746</v>
+      </c>
+      <c r="J94">
+        <v>0.0061825201210391097</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="s">
+        <v>882</v>
+      </c>
+      <c r="B95">
+        <v>0.28086992041271874</v>
+      </c>
+      <c r="C95">
+        <v>0.20180658972919618</v>
+      </c>
+      <c r="D95">
+        <v>0.01772287913907546</v>
+      </c>
+      <c r="E95">
+        <v>0.059871417627213985</v>
+      </c>
+      <c r="F95">
+        <v>0.37605389783108928</v>
+      </c>
+      <c r="G95">
+        <v>0.013198046353982201</v>
+      </c>
+      <c r="H95">
+        <v>0.0062824243126175074</v>
+      </c>
+      <c r="I95">
+        <v>0.037712510571819589</v>
+      </c>
+      <c r="J95">
+        <v>0.0064823140222870675</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="B96">
+        <v>0.45300954638401553</v>
+      </c>
+      <c r="C96">
+        <v>0.1903749495937628</v>
+      </c>
+      <c r="D96">
+        <v>0.007418335106697792</v>
+      </c>
+      <c r="E96">
+        <v>0.0097491961532054205</v>
+      </c>
+      <c r="F96">
+        <v>0.29083328889217663</v>
+      </c>
+      <c r="G96">
+        <v>0.0077269412590518158</v>
+      </c>
+      <c r="H96">
+        <v>0.0069805355767975598</v>
+      </c>
+      <c r="I96">
+        <v>0.023716967445537022</v>
+      </c>
+      <c r="J96">
+        <v>0.010190239588755305</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="L96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="s">
+        <v>884</v>
+      </c>
+      <c r="B97">
+        <v>0.22014459899318922</v>
+      </c>
+      <c r="C97">
+        <v>0.12414261276442569</v>
+      </c>
+      <c r="D97">
+        <v>0.010694498133253424</v>
+      </c>
+      <c r="E97">
+        <v>0.048657153580540527</v>
+      </c>
+      <c r="F97">
+        <v>0.39200663387064189</v>
+      </c>
+      <c r="G97">
+        <v>0.0090347663154551217</v>
+      </c>
+      <c r="H97">
+        <v>0.005937193766147598</v>
+      </c>
+      <c r="I97">
+        <v>0.18354669002029728</v>
+      </c>
+      <c r="J97">
+        <v>0.005835852556049197</v>
+      </c>
+      <c r="K97">
+        <v>2</v>
+      </c>
+      <c r="L97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="B98">
+        <v>0.18785613632221004</v>
+      </c>
+      <c r="C98">
+        <v>2.4522196742091745e-14</v>
+      </c>
+      <c r="D98">
+        <v>0.014111996615915454</v>
+      </c>
+      <c r="E98">
+        <v>0.014818945159041124</v>
+      </c>
+      <c r="F98">
+        <v>0.45890903898459989</v>
+      </c>
+      <c r="G98">
+        <v>0.0063264405683164833</v>
+      </c>
+      <c r="H98">
+        <v>0.00016469953157194751</v>
+      </c>
+      <c r="I98">
+        <v>0.31726636403552322</v>
+      </c>
+      <c r="J98">
+        <v>0.00054637878279739259</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="B99">
+        <v>0.28688802512571721</v>
+      </c>
+      <c r="C99">
+        <v>0.25906397436723638</v>
+      </c>
+      <c r="D99">
+        <v>0.018421316383352287</v>
+      </c>
+      <c r="E99">
+        <v>0.046902631665655538</v>
+      </c>
+      <c r="F99">
+        <v>0.19585308659897724</v>
+      </c>
+      <c r="G99">
+        <v>0.011113492779978801</v>
+      </c>
+      <c r="H99">
+        <v>0.0062021891541699905</v>
+      </c>
+      <c r="I99">
+        <v>0.16923003574896212</v>
+      </c>
+      <c r="J99">
+        <v>0.0063252481759504542</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="s">
+        <v>887</v>
+      </c>
+      <c r="B100">
+        <v>0.32352611621755573</v>
+      </c>
+      <c r="C100">
+        <v>0.28118941673697384</v>
+      </c>
+      <c r="D100">
+        <v>0.006606184164922738</v>
+      </c>
+      <c r="E100">
+        <v>0.034109025957310954</v>
+      </c>
+      <c r="F100">
+        <v>0.24453311510974823</v>
+      </c>
+      <c r="G100">
+        <v>0.031829991275313163</v>
+      </c>
+      <c r="H100">
+        <v>0.0063220304129523114</v>
+      </c>
+      <c r="I100">
+        <v>0.062927213120735195</v>
+      </c>
+      <c r="J100">
+        <v>0.0089569070044878737</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="L100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="B101">
+        <v>0.30841461668296266</v>
+      </c>
+      <c r="C101">
+        <v>0.083778380772415964</v>
+      </c>
+      <c r="D101">
+        <v>0.012310441062636169</v>
+      </c>
+      <c r="E101">
+        <v>0.0099267181346174831</v>
+      </c>
+      <c r="F101">
+        <v>0.20800895375105036</v>
+      </c>
+      <c r="G101">
+        <v>0.013125204721625096</v>
+      </c>
+      <c r="H101">
+        <v>0.0064892022447118501</v>
+      </c>
+      <c r="I101">
+        <v>0.35269662075663311</v>
+      </c>
+      <c r="J101">
+        <v>0.0052498618733473994</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="B102">
+        <v>0.27442234944258981</v>
+      </c>
+      <c r="C102">
+        <v>0.10392634253663342</v>
+      </c>
+      <c r="D102">
+        <v>0.021448253808879984</v>
+      </c>
+      <c r="E102">
+        <v>0.081722472617400455</v>
+      </c>
+      <c r="F102">
+        <v>0.15746958510416714</v>
+      </c>
+      <c r="G102">
+        <v>0.013451781615279762</v>
+      </c>
+      <c r="H102">
+        <v>0.0049570537373588956</v>
+      </c>
+      <c r="I102">
+        <v>0.33708931601146613</v>
+      </c>
+      <c r="J102">
+        <v>0.0055128451262244915</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
+      </c>
+      <c r="L102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="9" t="s">
+        <v>890</v>
+      </c>
+      <c r="B103">
+        <v>0.17225231562869633</v>
+      </c>
+      <c r="C103">
+        <v>0.20405022302918743</v>
+      </c>
+      <c r="D103">
+        <v>0.0083667415102229113</v>
+      </c>
+      <c r="E103">
+        <v>0.017318338400050322</v>
+      </c>
+      <c r="F103">
+        <v>0.2734155665910723</v>
+      </c>
+      <c r="G103">
+        <v>0.018904361144404146</v>
+      </c>
+      <c r="H103">
+        <v>0.006438247814043758</v>
+      </c>
+      <c r="I103">
+        <v>0.2928583530855195</v>
+      </c>
+      <c r="J103">
+        <v>0.0063958527968031023</v>
+      </c>
+      <c r="K103">
+        <v>2</v>
+      </c>
+      <c r="L103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="B104">
+        <v>0.30347532820247464</v>
+      </c>
+      <c r="C104">
+        <v>0.26381603808962628</v>
+      </c>
+      <c r="D104">
+        <v>0.010173497465594507</v>
+      </c>
+      <c r="E104">
+        <v>0.027811300466558164</v>
+      </c>
+      <c r="F104">
+        <v>0.25914564294132281</v>
+      </c>
+      <c r="G104">
+        <v>0.020345516270175196</v>
+      </c>
+      <c r="H104">
+        <v>0.0063660077768549986</v>
+      </c>
+      <c r="I104">
+        <v>0.10247686630665738</v>
+      </c>
+      <c r="J104">
+        <v>0.0063898024807360785</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="9" t="s">
+        <v>892</v>
+      </c>
+      <c r="B105">
+        <v>0.28502264418125572</v>
+      </c>
+      <c r="C105">
+        <v>0.28707123232894582</v>
+      </c>
+      <c r="D105">
+        <v>0.012780900168635057</v>
+      </c>
+      <c r="E105">
+        <v>0.029296414782335623</v>
+      </c>
+      <c r="F105">
+        <v>0.18975821045888663</v>
+      </c>
+      <c r="G105">
+        <v>0.010164771016908295</v>
+      </c>
+      <c r="H105">
+        <v>0.0066607603010190907</v>
+      </c>
+      <c r="I105">
+        <v>0.17265036274435328</v>
+      </c>
+      <c r="J105">
+        <v>0.0065947040176604311</v>
+      </c>
+      <c r="K105">
+        <v>2</v>
+      </c>
+      <c r="L105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="B106">
+        <v>0.22055522222431242</v>
+      </c>
+      <c r="C106">
+        <v>0.1746716129179815</v>
+      </c>
+      <c r="D106">
+        <v>0.019463147977744032</v>
+      </c>
+      <c r="E106">
+        <v>0.036369742669964067</v>
+      </c>
+      <c r="F106">
+        <v>0.37925943243694271</v>
+      </c>
+      <c r="G106">
+        <v>0.0094460232794676188</v>
+      </c>
+      <c r="H106">
+        <v>0.0060810727107068665</v>
+      </c>
+      <c r="I106">
+        <v>0.14796450892527063</v>
+      </c>
+      <c r="J106">
+        <v>0.0061892368576100315</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="B107">
+        <v>0.25299357146401957</v>
+      </c>
+      <c r="C107">
+        <v>0.30911514035857807</v>
+      </c>
+      <c r="D107">
+        <v>0.0067489188570352184</v>
+      </c>
+      <c r="E107">
+        <v>0.011447982693552098</v>
+      </c>
+      <c r="F107">
+        <v>0.27164961370568419</v>
+      </c>
+      <c r="G107">
+        <v>0.015487084720128365</v>
+      </c>
+      <c r="H107">
+        <v>0.0073743424050144932</v>
+      </c>
+      <c r="I107">
+        <v>0.1184242128608933</v>
+      </c>
+      <c r="J107">
+        <v>0.006759132935094816</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+      <c r="L107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="B108">
+        <v>0.23840433023710084</v>
+      </c>
+      <c r="C108">
+        <v>0.24554634310938944</v>
+      </c>
+      <c r="D108">
+        <v>0.0098387111649092199</v>
+      </c>
+      <c r="E108">
+        <v>0.064248520582569774</v>
+      </c>
+      <c r="F108">
+        <v>0.14790528738335501</v>
+      </c>
+      <c r="G108">
+        <v>0.0077278967122661225</v>
+      </c>
+      <c r="H108">
+        <v>0.0067789730790258976</v>
+      </c>
+      <c r="I108">
+        <v>0.27309547384063104</v>
+      </c>
+      <c r="J108">
+        <v>0.0064544638907524706</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="L108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="9" t="s">
+        <v>896</v>
+      </c>
+      <c r="B109">
+        <v>0.25440612789599637</v>
+      </c>
+      <c r="C109">
+        <v>2.2287531111842199e-14</v>
+      </c>
+      <c r="D109">
+        <v>0.00083838184660513747</v>
+      </c>
+      <c r="E109">
+        <v>0.076648446834421222</v>
+      </c>
+      <c r="F109">
+        <v>0.29780228507659584</v>
+      </c>
+      <c r="G109">
+        <v>0.0030268483213053577</v>
+      </c>
+      <c r="H109">
+        <v>7.6851571660826894e-06</v>
+      </c>
+      <c r="I109">
+        <v>0.35382828026810959</v>
+      </c>
+      <c r="J109">
+        <v>0.013441944599778209</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="9" t="s">
+        <v>897</v>
+      </c>
+      <c r="B110">
+        <v>0.27414354296838139</v>
+      </c>
+      <c r="C110">
+        <v>0.18621445635282191</v>
+      </c>
+      <c r="D110">
+        <v>0.021269274110563407</v>
+      </c>
+      <c r="E110">
+        <v>0.016709933998336816</v>
+      </c>
+      <c r="F110">
+        <v>0.33972867024355408</v>
+      </c>
+      <c r="G110">
+        <v>0.0079905051837343907</v>
+      </c>
+      <c r="H110">
+        <v>0.006651544128006703</v>
+      </c>
+      <c r="I110">
+        <v>0.14089451494137856</v>
+      </c>
+      <c r="J110">
+        <v>0.0063975580732227866</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="9" t="s">
+        <v>898</v>
+      </c>
+      <c r="B111">
+        <v>0.19807395858129881</v>
+      </c>
+      <c r="C111">
+        <v>2.4577365541676338e-14</v>
+      </c>
+      <c r="D111">
+        <v>0.00091232244320249838</v>
+      </c>
+      <c r="E111">
+        <v>0.14253951534698417</v>
+      </c>
+      <c r="F111">
+        <v>0.46435281130481043</v>
+      </c>
+      <c r="G111">
+        <v>0.0044251671847448477</v>
+      </c>
+      <c r="H111">
+        <v>5.8704567684321371e-05</v>
+      </c>
+      <c r="I111">
+        <v>0.18650800041054583</v>
+      </c>
+      <c r="J111">
+        <v>0.003129520160704535</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+      <c r="L111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="9" t="s">
+        <v>899</v>
+      </c>
+      <c r="B112">
+        <v>0.26415307295402574</v>
+      </c>
+      <c r="C112">
+        <v>0.14351066240654833</v>
+      </c>
+      <c r="D112">
+        <v>0.0065270959137145998</v>
+      </c>
+      <c r="E112">
+        <v>0.017499867389200355</v>
+      </c>
+      <c r="F112">
+        <v>0.1148749723018022</v>
+      </c>
+      <c r="G112">
+        <v>0.010204702482497253</v>
+      </c>
+      <c r="H112">
+        <v>0.0063216617984810999</v>
+      </c>
+      <c r="I112">
+        <v>0.42886665711349314</v>
+      </c>
+      <c r="J112">
+        <v>0.0080413076402372601</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="9" t="s">
+        <v>900</v>
+      </c>
+      <c r="B113">
+        <v>0.27955748025485444</v>
+      </c>
+      <c r="C113">
+        <v>0.14842121684398474</v>
+      </c>
+      <c r="D113">
+        <v>0.0083332969855194668</v>
+      </c>
+      <c r="E113">
+        <v>0.0081401325575740178</v>
+      </c>
+      <c r="F113">
+        <v>0.26378891948140892</v>
+      </c>
+      <c r="G113">
+        <v>0.030619277440430658</v>
+      </c>
+      <c r="H113">
+        <v>0.0064262071373865602</v>
+      </c>
+      <c r="I113">
+        <v>0.24849149254996455</v>
+      </c>
+      <c r="J113">
+        <v>0.0062219767488767676</v>
+      </c>
+      <c r="K113">
+        <v>2</v>
+      </c>
+      <c r="L113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="B114">
+        <v>0.24105686247935679</v>
+      </c>
+      <c r="C114">
+        <v>2.5203923295705479e-14</v>
+      </c>
+      <c r="D114">
+        <v>0.00023732787399831216</v>
+      </c>
+      <c r="E114">
+        <v>0.024898158624598671</v>
+      </c>
+      <c r="F114">
+        <v>0.16562883144017762</v>
+      </c>
+      <c r="G114">
+        <v>0.0038856692097791802</v>
+      </c>
+      <c r="H114">
+        <v>0.0005962513700103158</v>
+      </c>
+      <c r="I114">
+        <v>0.56263753433506247</v>
+      </c>
+      <c r="J114">
+        <v>0.0010593646669911942</v>
+      </c>
+      <c r="K114">
+        <v>8</v>
+      </c>
+      <c r="L114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="9" t="s">
+        <v>902</v>
+      </c>
+      <c r="B115">
+        <v>0.32086097236167355</v>
+      </c>
+      <c r="C115">
+        <v>0.2584990648707709</v>
+      </c>
+      <c r="D115">
+        <v>0.011598590008439727</v>
+      </c>
+      <c r="E115">
+        <v>0.018941778407031307</v>
+      </c>
+      <c r="F115">
+        <v>0.33592227404423214</v>
+      </c>
+      <c r="G115">
+        <v>0.0098030494294477754</v>
+      </c>
+      <c r="H115">
+        <v>0.006777750765862383</v>
+      </c>
+      <c r="I115">
+        <v>0.030465159955037371</v>
+      </c>
+      <c r="J115">
+        <v>0.0071313601575049334</v>
+      </c>
+      <c r="K115">
+        <v>2</v>
+      </c>
+      <c r="L115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="9" t="s">
+        <v>903</v>
+      </c>
+      <c r="B116">
+        <v>0.3353819370888434</v>
+      </c>
+      <c r="C116">
+        <v>0.31729303685932791</v>
+      </c>
+      <c r="D116">
+        <v>0.01500685272821467</v>
+      </c>
+      <c r="E116">
+        <v>0.01455705144325109</v>
+      </c>
+      <c r="F116">
+        <v>0.22377275364814808</v>
+      </c>
+      <c r="G116">
+        <v>0.0097051724997790651</v>
+      </c>
+      <c r="H116">
+        <v>0.0067963723288755303</v>
+      </c>
+      <c r="I116">
+        <v>0.070344607792123301</v>
+      </c>
+      <c r="J116">
+        <v>0.0071422156114368703</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="9" t="s">
+        <v>904</v>
+      </c>
+      <c r="B117">
+        <v>0.25399428963967435</v>
+      </c>
+      <c r="C117">
+        <v>0.18937985291531523</v>
+      </c>
+      <c r="D117">
+        <v>0.026437599076305933</v>
+      </c>
+      <c r="E117">
+        <v>0.041333160154617951</v>
+      </c>
+      <c r="F117">
+        <v>0.3224759181658356</v>
+      </c>
+      <c r="G117">
+        <v>0.016623515950856711</v>
+      </c>
+      <c r="H117">
+        <v>0.0059378610651568764</v>
+      </c>
+      <c r="I117">
+        <v>0.13769142834526044</v>
+      </c>
+      <c r="J117">
+        <v>0.0061263746869771483</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+      <c r="L117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="B118">
+        <v>0.25874050536710064</v>
+      </c>
+      <c r="C118">
+        <v>2.2307163939846047e-14</v>
+      </c>
+      <c r="D118">
+        <v>0.46675620298291931</v>
+      </c>
+      <c r="E118">
+        <v>0.00084968890387486745</v>
+      </c>
+      <c r="F118">
+        <v>0.24929710816582473</v>
+      </c>
+      <c r="G118">
+        <v>0.0027166076422768296</v>
+      </c>
+      <c r="H118">
+        <v>0.00037925875568199115</v>
+      </c>
+      <c r="I118">
+        <v>0.021023776646457971</v>
+      </c>
+      <c r="J118">
+        <v>0.0002368515358413233</v>
+      </c>
+      <c r="K118">
+        <v>3</v>
+      </c>
+      <c r="L118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="B119">
+        <v>0.32005487678912314</v>
+      </c>
+      <c r="C119">
+        <v>0.16357810132201778</v>
+      </c>
+      <c r="D119">
+        <v>0.013470256700850173</v>
+      </c>
+      <c r="E119">
+        <v>0.10617260608275604</v>
+      </c>
+      <c r="F119">
+        <v>0.35505763259213557</v>
+      </c>
+      <c r="G119">
+        <v>0.0079770638071142482</v>
+      </c>
+      <c r="H119">
+        <v>0.0062900070476351391</v>
+      </c>
+      <c r="I119">
+        <v>0.020777106416831552</v>
+      </c>
+      <c r="J119">
+        <v>0.0066223492415362394</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="9" t="s">
+        <v>907</v>
+      </c>
+      <c r="B120">
+        <v>0.26482260079277681</v>
+      </c>
+      <c r="C120">
+        <v>0.11810834961364326</v>
+      </c>
+      <c r="D120">
+        <v>0.0090164593895008076</v>
+      </c>
+      <c r="E120">
+        <v>0.034227464759569892</v>
+      </c>
+      <c r="F120">
+        <v>0.31849500340658093</v>
+      </c>
+      <c r="G120">
+        <v>0.0087845015520760707</v>
+      </c>
+      <c r="H120">
+        <v>0.0059558904801453802</v>
+      </c>
+      <c r="I120">
+        <v>0.23456054581785768</v>
+      </c>
+      <c r="J120">
+        <v>0.0060291841878492387</v>
+      </c>
+      <c r="K120">
+        <v>2</v>
+      </c>
+      <c r="L120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="9" t="s">
+        <v>908</v>
+      </c>
+      <c r="B121">
+        <v>0.24901675807819026</v>
+      </c>
+      <c r="C121">
+        <v>0.15904785125423909</v>
+      </c>
+      <c r="D121">
+        <v>0.017122735135689564</v>
+      </c>
+      <c r="E121">
+        <v>0.091036439794043675</v>
+      </c>
+      <c r="F121">
+        <v>0.36924423108665405</v>
+      </c>
+      <c r="G121">
+        <v>0.0095110507020195328</v>
+      </c>
+      <c r="H121">
+        <v>0.0061560140859813839</v>
+      </c>
+      <c r="I121">
+        <v>0.092787226978834847</v>
+      </c>
+      <c r="J121">
+        <v>0.0060776928843475908</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="B122">
+        <v>0.43755501926169887</v>
+      </c>
+      <c r="C122">
+        <v>0.14042061676509332</v>
+      </c>
+      <c r="D122">
+        <v>0.006964161080687788</v>
+      </c>
+      <c r="E122">
+        <v>0.015214739871000657</v>
+      </c>
+      <c r="F122">
+        <v>0.36509367544950111</v>
+      </c>
+      <c r="G122">
+        <v>0.0072170036516030845</v>
+      </c>
+      <c r="H122">
+        <v>0.0068538655218613256</v>
+      </c>
+      <c r="I122">
+        <v>0.011430013747794357</v>
+      </c>
+      <c r="J122">
+        <v>0.0092509046507594141</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="B123">
+        <v>0.27111450316525842</v>
+      </c>
+      <c r="C123">
+        <v>0.22023201491745489</v>
+      </c>
+      <c r="D123">
+        <v>0.018286727894136736</v>
+      </c>
+      <c r="E123">
+        <v>0.047944155064659863</v>
+      </c>
+      <c r="F123">
+        <v>0.32056054878311174</v>
+      </c>
+      <c r="G123">
+        <v>0.028795974643873713</v>
+      </c>
+      <c r="H123">
+        <v>0.0060176202653989984</v>
+      </c>
+      <c r="I123">
+        <v>0.080763447767396829</v>
+      </c>
+      <c r="J123">
+        <v>0.0062850074987087961</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="9" t="s">
+        <v>911</v>
+      </c>
+      <c r="B124">
+        <v>0.34225540038373853</v>
+      </c>
+      <c r="C124">
+        <v>0.19605574351163227</v>
+      </c>
+      <c r="D124">
+        <v>0.035696184021687304</v>
+      </c>
+      <c r="E124">
+        <v>0.015936801222507783</v>
+      </c>
+      <c r="F124">
+        <v>0.25275635669739205</v>
+      </c>
+      <c r="G124">
+        <v>0.010220463831809341</v>
+      </c>
+      <c r="H124">
+        <v>0.0062270288705737493</v>
+      </c>
+      <c r="I124">
+        <v>0.13450228244217047</v>
+      </c>
+      <c r="J124">
+        <v>0.0063497390184885753</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="9" t="s">
+        <v>912</v>
+      </c>
+      <c r="B125">
+        <v>0.25150728807536987</v>
+      </c>
+      <c r="C125">
+        <v>0.17868217668245467</v>
+      </c>
+      <c r="D125">
+        <v>0.057934276531115804</v>
+      </c>
+      <c r="E125">
+        <v>0.027212680407381378</v>
+      </c>
+      <c r="F125">
+        <v>0.23112075922474903</v>
+      </c>
+      <c r="G125">
+        <v>0.0098501691342628324</v>
+      </c>
+      <c r="H125">
+        <v>0.0063770746623040371</v>
+      </c>
+      <c r="I125">
+        <v>0.23117904697210467</v>
+      </c>
+      <c r="J125">
+        <v>0.0061365283102578503</v>
+      </c>
+      <c r="K125">
+        <v>2</v>
+      </c>
+      <c r="L125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="9" t="s">
+        <v>913</v>
+      </c>
+      <c r="B126">
+        <v>0.32628061729087948</v>
+      </c>
+      <c r="C126">
+        <v>0.21936566204768251</v>
+      </c>
+      <c r="D126">
+        <v>0.010705400766348371</v>
+      </c>
+      <c r="E126">
+        <v>0.08845419259430716</v>
+      </c>
+      <c r="F126">
+        <v>0.27247939853157765</v>
+      </c>
+      <c r="G126">
+        <v>0.011828861991542068</v>
+      </c>
+      <c r="H126">
+        <v>0.0063431314606663524</v>
+      </c>
+      <c r="I126">
+        <v>0.058037875318073869</v>
+      </c>
+      <c r="J126">
+        <v>0.0065048599989223415</v>
+      </c>
+      <c r="K126">
+        <v>2</v>
+      </c>
+      <c r="L126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="9" t="s">
+        <v>914</v>
+      </c>
+      <c r="B127">
+        <v>0.11976931466923643</v>
+      </c>
+      <c r="C127">
+        <v>2.228658357178832e-14</v>
+      </c>
+      <c r="D127">
+        <v>0.01380878563923591</v>
+      </c>
+      <c r="E127">
+        <v>0.0026457505018926647</v>
+      </c>
+      <c r="F127">
+        <v>0.010061266195612156</v>
+      </c>
+      <c r="G127">
+        <v>0.82923814308869059</v>
+      </c>
+      <c r="H127">
+        <v>0.010586669623596797</v>
+      </c>
+      <c r="I127">
+        <v>0.013704985594517674</v>
+      </c>
+      <c r="J127">
+        <v>0.00018508468719548741</v>
+      </c>
+      <c r="K127">
+        <v>6</v>
+      </c>
+      <c r="L127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="9" t="s">
+        <v>915</v>
+      </c>
+      <c r="B128">
+        <v>0.10365416009101729</v>
+      </c>
+      <c r="C128">
+        <v>2.2296017936367177e-14</v>
+      </c>
+      <c r="D128">
+        <v>0.013098793978462564</v>
+      </c>
+      <c r="E128">
+        <v>0.014557743245318003</v>
+      </c>
+      <c r="F128">
+        <v>0.039430181775160222</v>
+      </c>
+      <c r="G128">
+        <v>0.81170712022227587</v>
+      </c>
+      <c r="H128">
+        <v>7.7211702220233083e-05</v>
+      </c>
+      <c r="I128">
+        <v>0.017260051787501184</v>
+      </c>
+      <c r="J128">
+        <v>0.00021473719802247824</v>
+      </c>
+      <c r="K128">
+        <v>6</v>
+      </c>
+      <c r="L128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="9" t="s">
+        <v>916</v>
+      </c>
+      <c r="B129">
+        <v>0.21204600171790788</v>
+      </c>
+      <c r="C129">
+        <v>2.2314665367064083e-14</v>
+      </c>
+      <c r="D129">
+        <v>0.019578929415510454</v>
+      </c>
+      <c r="E129">
+        <v>0.0080516569424921511</v>
+      </c>
+      <c r="F129">
+        <v>0.066580680280625498</v>
+      </c>
+      <c r="G129">
+        <v>0.52438509743139439</v>
+      </c>
+      <c r="H129">
+        <v>9.0426538882169808e-05</v>
+      </c>
+      <c r="I129">
+        <v>0.16909707287365716</v>
+      </c>
+      <c r="J129">
+        <v>0.00017013479950802208</v>
+      </c>
+      <c r="K129">
+        <v>6</v>
+      </c>
+      <c r="L129">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="B130">
+        <v>0.20975158227431642</v>
+      </c>
+      <c r="C130">
+        <v>2.2581585064141528e-14</v>
+      </c>
+      <c r="D130">
+        <v>0.0055932929846023716</v>
+      </c>
+      <c r="E130">
+        <v>0.10220301667843484</v>
+      </c>
+      <c r="F130">
+        <v>0.061589592456851097</v>
+      </c>
+      <c r="G130">
+        <v>0.50089611280896884</v>
+      </c>
+      <c r="H130">
+        <v>0.00015880715841000266</v>
+      </c>
+      <c r="I130">
+        <v>0.11920213515579078</v>
+      </c>
+      <c r="J130">
+        <v>0.000605460482603176</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="9" t="s">
+        <v>918</v>
+      </c>
+      <c r="B131">
+        <v>0.22043946014497728</v>
+      </c>
+      <c r="C131">
+        <v>0.15888790698862398</v>
+      </c>
+      <c r="D131">
+        <v>0.0082797808216249352</v>
+      </c>
+      <c r="E131">
+        <v>0.08323641833766271</v>
+      </c>
+      <c r="F131">
+        <v>0.19116061527971656</v>
+      </c>
+      <c r="G131">
+        <v>0.068062280385777885</v>
+      </c>
+      <c r="H131">
+        <v>0.0055224823869835411</v>
+      </c>
+      <c r="I131">
+        <v>0.25852920799921353</v>
+      </c>
+      <c r="J131">
+        <v>0.0058818476554196447</v>
+      </c>
+      <c r="K131">
+        <v>2</v>
+      </c>
+      <c r="L131">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="9" t="s">
+        <v>919</v>
+      </c>
+      <c r="B132">
+        <v>0.15268373885822231</v>
+      </c>
+      <c r="C132">
+        <v>2.2259252335861734e-14</v>
+      </c>
+      <c r="D132">
+        <v>0.010467286645726492</v>
+      </c>
+      <c r="E132">
+        <v>0.0031628667240159738</v>
+      </c>
+      <c r="F132">
+        <v>0.016034928205238094</v>
+      </c>
+      <c r="G132">
+        <v>0.79994696102268303</v>
+      </c>
+      <c r="H132">
+        <v>0.0018935236514195581</v>
+      </c>
+      <c r="I132">
+        <v>0.01511118171586868</v>
+      </c>
+      <c r="J132">
+        <v>0.00069951317680363881</v>
+      </c>
+      <c r="K132">
+        <v>6</v>
+      </c>
+      <c r="L132">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="9" t="s">
+        <v>920</v>
+      </c>
+      <c r="B133">
+        <v>0.093687068792185912</v>
+      </c>
+      <c r="C133">
+        <v>2.2307315784309732e-14</v>
+      </c>
+      <c r="D133">
+        <v>0.032458422335564695</v>
+      </c>
+      <c r="E133">
+        <v>0.0022911762700036989</v>
+      </c>
+      <c r="F133">
+        <v>0.029919190821318838</v>
+      </c>
+      <c r="G133">
+        <v>0.8315820173089199</v>
+      </c>
+      <c r="H133">
+        <v>0.00033468115576695525</v>
+      </c>
+      <c r="I133">
+        <v>0.0096333278961790014</v>
+      </c>
+      <c r="J133">
+        <v>9.4115420038721594e-05</v>
+      </c>
+      <c r="K133">
+        <v>6</v>
+      </c>
+      <c r="L133">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="9" t="s">
+        <v>921</v>
+      </c>
+      <c r="B134">
+        <v>0.17271073771448739</v>
+      </c>
+      <c r="C134">
+        <v>2.2283130361848224e-14</v>
+      </c>
+      <c r="D134">
+        <v>0.016042194140335021</v>
+      </c>
+      <c r="E134">
+        <v>0.0038410485465752873</v>
+      </c>
+      <c r="F134">
+        <v>0.026362340676095466</v>
+      </c>
+      <c r="G134">
+        <v>0.71885654621820305</v>
+      </c>
+      <c r="H134">
+        <v>0.0078965282999434085</v>
+      </c>
+      <c r="I134">
+        <v>0.053774062164197445</v>
+      </c>
+      <c r="J134">
+        <v>0.00051654224014054465</v>
+      </c>
+      <c r="K134">
+        <v>6</v>
+      </c>
+      <c r="L134">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="9" t="s">
+        <v>922</v>
+      </c>
+      <c r="B135">
+        <v>0.067176213412487418</v>
+      </c>
+      <c r="C135">
+        <v>2.2477787135807738e-14</v>
+      </c>
+      <c r="D135">
+        <v>0.0024192901322400884</v>
+      </c>
+      <c r="E135">
+        <v>0.0011574078288902753</v>
+      </c>
+      <c r="F135">
+        <v>0.037801002912844085</v>
+      </c>
+      <c r="G135">
+        <v>0.0011490185128091978</v>
+      </c>
+      <c r="H135">
+        <v>0.80677301078558605</v>
+      </c>
+      <c r="I135">
+        <v>0.083382584990183847</v>
+      </c>
+      <c r="J135">
+        <v>0.00014147142493667664</v>
+      </c>
+      <c r="K135">
+        <v>7</v>
+      </c>
+      <c r="L135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="9" t="s">
+        <v>923</v>
+      </c>
+      <c r="B136">
+        <v>0.058386570480027621</v>
+      </c>
+      <c r="C136">
+        <v>2.2709608594716061e-14</v>
+      </c>
+      <c r="D136">
+        <v>0.0031253483852022217</v>
+      </c>
+      <c r="E136">
+        <v>0.0073491534621719446</v>
+      </c>
+      <c r="F136">
+        <v>0.038906189883812149</v>
+      </c>
+      <c r="G136">
+        <v>0.0021343697465401293</v>
+      </c>
+      <c r="H136">
+        <v>0.72527863322336228</v>
+      </c>
+      <c r="I136">
+        <v>0.16474731415125848</v>
+      </c>
+      <c r="J136">
+        <v>7.2420667602474389e-05</v>
+      </c>
+      <c r="K136">
+        <v>7</v>
+      </c>
+      <c r="L136">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="B137">
+        <v>0.081446762116340513</v>
+      </c>
+      <c r="C137">
+        <v>2.2289244858269134e-14</v>
+      </c>
+      <c r="D137">
+        <v>0.013937111521138877</v>
+      </c>
+      <c r="E137">
+        <v>0.00074868950681891699</v>
+      </c>
+      <c r="F137">
+        <v>0.023059914353599519</v>
+      </c>
+      <c r="G137">
+        <v>0.00057445877210706038</v>
+      </c>
+      <c r="H137">
+        <v>0.87398428046536736</v>
+      </c>
+      <c r="I137">
+        <v>0.006104592020603576</v>
+      </c>
+      <c r="J137">
+        <v>0.00014419124400193219</v>
+      </c>
+      <c r="K137">
+        <v>7</v>
+      </c>
+      <c r="L137">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="B138">
+        <v>0.19128970385173868</v>
+      </c>
+      <c r="C138">
+        <v>2.2411270136884111e-14</v>
+      </c>
+      <c r="D138">
+        <v>0.0030594069046880482</v>
+      </c>
+      <c r="E138">
+        <v>0.071290201021758967</v>
+      </c>
+      <c r="F138">
+        <v>0.17411899170727985</v>
+      </c>
+      <c r="G138">
+        <v>0.0054379225259506697</v>
+      </c>
+      <c r="H138">
+        <v>9.4377727796774122e-05</v>
+      </c>
+      <c r="I138">
+        <v>0.5544083017712077</v>
+      </c>
+      <c r="J138">
+        <v>0.00030109448955685579</v>
+      </c>
+      <c r="K138">
+        <v>8</v>
+      </c>
+      <c r="L138">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="9" t="s">
+        <v>926</v>
+      </c>
+      <c r="B139">
+        <v>0.11682505386501586</v>
+      </c>
+      <c r="C139">
+        <v>2.2330928550110674e-14</v>
+      </c>
+      <c r="D139">
+        <v>0.001757927719021825</v>
+      </c>
+      <c r="E139">
+        <v>0.00027845620569290461</v>
+      </c>
+      <c r="F139">
+        <v>0.064528272874512169</v>
+      </c>
+      <c r="G139">
+        <v>0.001376107761374703</v>
+      </c>
+      <c r="H139">
+        <v>0.000180243924251583</v>
+      </c>
+      <c r="I139">
+        <v>0.81503185521735566</v>
+      </c>
+      <c r="J139">
+        <v>2.2082432752883959e-05</v>
+      </c>
+      <c r="K139">
+        <v>8</v>
+      </c>
+      <c r="L139">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="9" t="s">
+        <v>927</v>
+      </c>
+      <c r="B140">
+        <v>0.079943437967442021</v>
+      </c>
+      <c r="C140">
+        <v>2.2464771723407266e-14</v>
+      </c>
+      <c r="D140">
+        <v>0.00034651029491100698</v>
+      </c>
+      <c r="E140">
+        <v>0.014679658737673547</v>
+      </c>
+      <c r="F140">
+        <v>0.13143326611685832</v>
+      </c>
+      <c r="G140">
+        <v>0.0018142335387965971</v>
+      </c>
+      <c r="H140">
+        <v>4.330750073700972e-06</v>
+      </c>
+      <c r="I140">
+        <v>0.76284692760102923</v>
+      </c>
+      <c r="J140">
+        <v>0.0089316349931931206</v>
+      </c>
+      <c r="K140">
+        <v>8</v>
+      </c>
+      <c r="L140">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="9" t="s">
+        <v>928</v>
+      </c>
+      <c r="B141">
+        <v>0.21183496940943719</v>
+      </c>
+      <c r="C141">
+        <v>2.2673778508625813e-14</v>
+      </c>
+      <c r="D141">
+        <v>0.26650886442426192</v>
+      </c>
+      <c r="E141">
+        <v>0.0010281190831472732</v>
+      </c>
+      <c r="F141">
+        <v>0.085832341731038</v>
+      </c>
+      <c r="G141">
+        <v>0.0037264195867209352</v>
+      </c>
+      <c r="H141">
+        <v>9.8663012496424157e-05</v>
+      </c>
+      <c r="I141">
+        <v>0.43095325849501509</v>
+      </c>
+      <c r="J141">
+        <v>1.7364257860462189e-05</v>
+      </c>
+      <c r="K141">
+        <v>8</v>
+      </c>
+      <c r="L141">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="9" t="s">
+        <v>929</v>
+      </c>
+      <c r="B142">
+        <v>0.12567703013621953</v>
+      </c>
+      <c r="C142">
+        <v>2.2345294918347651e-14</v>
+      </c>
+      <c r="D142">
+        <v>0.0062380091625883639</v>
+      </c>
+      <c r="E142">
+        <v>0.0024695463488594712</v>
+      </c>
+      <c r="F142">
+        <v>0.067259173597601932</v>
+      </c>
+      <c r="G142">
+        <v>0.0019411147085017506</v>
+      </c>
+      <c r="H142">
+        <v>0.00018040536440130413</v>
+      </c>
+      <c r="I142">
+        <v>0.7961905911167686</v>
+      </c>
+      <c r="J142">
+        <v>4.412956503669078e-05</v>
+      </c>
+      <c r="K142">
+        <v>8</v>
+      </c>
+      <c r="L142">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="9" t="s">
+        <v>930</v>
+      </c>
+      <c r="B143">
+        <v>0.12104797596623963</v>
+      </c>
+      <c r="C143">
+        <v>2.2396425752912862e-14</v>
+      </c>
+      <c r="D143">
+        <v>0.0010838233224068476</v>
+      </c>
+      <c r="E143">
+        <v>0.10967311021003448</v>
+      </c>
+      <c r="F143">
+        <v>0.030955610586949383</v>
+      </c>
+      <c r="G143">
+        <v>0.0052249370336124789</v>
+      </c>
+      <c r="H143">
+        <v>1.714223169250606e-06</v>
+      </c>
+      <c r="I143">
+        <v>0.73191486342040313</v>
+      </c>
+      <c r="J143">
+        <v>9.796523716238412e-05</v>
+      </c>
+      <c r="K143">
+        <v>8</v>
+      </c>
+      <c r="L143">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="9" t="s">
+        <v>931</v>
+      </c>
+      <c r="B144">
+        <v>0.2294286025403976</v>
+      </c>
+      <c r="C144">
+        <v>2.2271982497386872e-14</v>
+      </c>
+      <c r="D144">
+        <v>0.031224347127012313</v>
+      </c>
+      <c r="E144">
+        <v>0.017243324971359757</v>
+      </c>
+      <c r="F144">
+        <v>0.14118208045820693</v>
+      </c>
+      <c r="G144">
+        <v>0.0059874025296561212</v>
+      </c>
+      <c r="H144">
+        <v>0.00039914043255089243</v>
+      </c>
+      <c r="I144">
+        <v>0.57440367693038752</v>
+      </c>
+      <c r="J144">
+        <v>0.00013142501040662235</v>
+      </c>
+      <c r="K144">
+        <v>8</v>
+      </c>
+      <c r="L144">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="9" t="s">
+        <v>932</v>
+      </c>
+      <c r="B145">
+        <v>0.25666885401059142</v>
+      </c>
+      <c r="C145">
+        <v>0.12527706264536795</v>
+      </c>
+      <c r="D145">
+        <v>0.0061431737573664014</v>
+      </c>
+      <c r="E145">
+        <v>0.058582455216033447</v>
+      </c>
+      <c r="F145">
+        <v>0.1913195443774223</v>
+      </c>
+      <c r="G145">
+        <v>0.02319804933903075</v>
+      </c>
+      <c r="H145">
+        <v>0.0055587507650167543</v>
+      </c>
+      <c r="I145">
+        <v>0.32744734329549663</v>
+      </c>
+      <c r="J145">
+        <v>0.0058047665936744805</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="9" t="s">
+        <v>933</v>
+      </c>
+      <c r="B146">
+        <v>0.25675086028048782</v>
+      </c>
+      <c r="C146">
+        <v>2.2304244799542747e-14</v>
+      </c>
+      <c r="D146">
+        <v>0.0043329085840444021</v>
+      </c>
+      <c r="E146">
+        <v>0.015321579872291503</v>
+      </c>
+      <c r="F146">
+        <v>0.11720030809741219</v>
+      </c>
+      <c r="G146">
+        <v>0.0051732285835300587</v>
+      </c>
+      <c r="H146">
+        <v>2.4767958801404505e-05</v>
+      </c>
+      <c r="I146">
+        <v>0.60113200524867816</v>
+      </c>
+      <c r="J146">
+        <v>6.4341374732205687e-05</v>
+      </c>
+      <c r="K146">
+        <v>8</v>
+      </c>
+      <c r="L146">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="B147">
+        <v>0.058161718925261001</v>
+      </c>
+      <c r="C147">
+        <v>2.2268058933195515e-14</v>
+      </c>
+      <c r="D147">
+        <v>0.00018844599813785186</v>
+      </c>
+      <c r="E147">
+        <v>0.073115432016356952</v>
+      </c>
+      <c r="F147">
+        <v>0.0044261992305846811</v>
+      </c>
+      <c r="G147">
+        <v>0.0005967309495846253</v>
+      </c>
+      <c r="H147">
+        <v>8.6453406501665678e-11</v>
+      </c>
+      <c r="I147">
+        <v>0.86344975727718476</v>
+      </c>
+      <c r="J147">
+        <v>6.1715516414533235e-05</v>
+      </c>
+      <c r="K147">
+        <v>8</v>
+      </c>
+      <c r="L147">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="9" t="s">
+        <v>935</v>
+      </c>
+      <c r="B148">
+        <v>0.28390903410133478</v>
+      </c>
+      <c r="C148">
+        <v>2.566210033163599e-14</v>
+      </c>
+      <c r="D148">
+        <v>0.049592006659708893</v>
+      </c>
+      <c r="E148">
+        <v>0.011230086499486565</v>
+      </c>
+      <c r="F148">
+        <v>0.082389677887288182</v>
+      </c>
+      <c r="G148">
+        <v>0.0038939181678832118</v>
+      </c>
+      <c r="H148">
+        <v>0.0067325701787532919</v>
+      </c>
+      <c r="I148">
+        <v>0.56208729187322459</v>
+      </c>
+      <c r="J148">
+        <v>0.00016541463229476628</v>
+      </c>
+      <c r="K148">
+        <v>8</v>
+      </c>
+      <c r="L148">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="9" t="s">
+        <v>936</v>
+      </c>
+      <c r="B149">
+        <v>0.21522441621349145</v>
+      </c>
+      <c r="C149">
+        <v>2.2320344369925682e-14</v>
+      </c>
+      <c r="D149">
+        <v>0.0007569051300045271</v>
+      </c>
+      <c r="E149">
+        <v>0.046819106647762516</v>
+      </c>
+      <c r="F149">
+        <v>0.048072096890331324</v>
+      </c>
+      <c r="G149">
+        <v>0.0079342105178516267</v>
+      </c>
+      <c r="H149">
+        <v>1.3468327470774189e-06</v>
+      </c>
+      <c r="I149">
+        <v>0.68110106700024997</v>
+      </c>
+      <c r="J149">
+        <v>9.0850767539221592e-05</v>
+      </c>
+      <c r="K149">
+        <v>8</v>
+      </c>
+      <c r="L149">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="9" t="s">
+        <v>937</v>
+      </c>
+      <c r="B150">
+        <v>0.12109899852437622</v>
+      </c>
+      <c r="C150">
+        <v>2.2390888463869758e-14</v>
+      </c>
+      <c r="D150">
+        <v>0.010804771957484994</v>
+      </c>
+      <c r="E150">
+        <v>0.015846512470619446</v>
+      </c>
+      <c r="F150">
+        <v>0.13093352508483772</v>
+      </c>
+      <c r="G150">
+        <v>0.00098144304672543366</v>
+      </c>
+      <c r="H150">
+        <v>0.0010971286911363165</v>
+      </c>
+      <c r="I150">
+        <v>0.71850662267532073</v>
+      </c>
+      <c r="J150">
+        <v>0.0007309975494766861</v>
+      </c>
+      <c r="K150">
+        <v>8</v>
+      </c>
+      <c r="L150">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="9" t="s">
+        <v>938</v>
+      </c>
+      <c r="B151">
+        <v>0.2695056011878505</v>
+      </c>
+      <c r="C151">
+        <v>2.4862323490636176e-14</v>
+      </c>
+      <c r="D151">
+        <v>0.0020454119899748079</v>
+      </c>
+      <c r="E151">
+        <v>0.1340417372627479</v>
+      </c>
+      <c r="F151">
+        <v>0.14478746442126841</v>
+      </c>
+      <c r="G151">
+        <v>0.017425842128499219</v>
+      </c>
+      <c r="H151">
+        <v>2.7352537749612063e-05</v>
+      </c>
+      <c r="I151">
+        <v>0.43182543899765941</v>
+      </c>
+      <c r="J151">
+        <v>0.00034115147422540904</v>
+      </c>
+      <c r="K151">
+        <v>2</v>
+      </c>
+      <c r="L151">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="9" t="s">
+        <v>939</v>
+      </c>
+      <c r="B152">
+        <v>0.060810280001014114</v>
+      </c>
+      <c r="C152">
+        <v>2.2350860239907445e-14</v>
+      </c>
+      <c r="D152">
+        <v>1.7035453897362413e-06</v>
+      </c>
+      <c r="E152">
+        <v>0.019616905127342165</v>
+      </c>
+      <c r="F152">
+        <v>0.11229208549363419</v>
+      </c>
+      <c r="G152">
+        <v>0.020688483838244551</v>
+      </c>
+      <c r="H152">
+        <v>2.5492214251021241e-08</v>
+      </c>
+      <c r="I152">
+        <v>0.78651461518803634</v>
+      </c>
+      <c r="J152">
+        <v>7.5901314102223686e-05</v>
+      </c>
+      <c r="K152">
+        <v>8</v>
+      </c>
+      <c r="L152">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="9" t="s">
+        <v>940</v>
+      </c>
+      <c r="B153">
+        <v>0.29310225060536194</v>
+      </c>
+      <c r="C153">
+        <v>2.5719757598820381e-14</v>
+      </c>
+      <c r="D153">
+        <v>0.00090781689630387214</v>
+      </c>
+      <c r="E153">
+        <v>0.20864822464292807</v>
+      </c>
+      <c r="F153">
+        <v>0.1164298985282617</v>
+      </c>
+      <c r="G153">
+        <v>0.012757880497879421</v>
+      </c>
+      <c r="H153">
+        <v>3.9510788090605985e-07</v>
+      </c>
+      <c r="I153">
+        <v>0.36564375183827186</v>
+      </c>
+      <c r="J153">
+        <v>0.0025097818830866164</v>
+      </c>
+      <c r="K153">
+        <v>2</v>
+      </c>
+      <c r="L153">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="9" t="s">
+        <v>941</v>
+      </c>
+      <c r="B154">
+        <v>0.089632878497938523</v>
+      </c>
+      <c r="C154">
+        <v>2.2352590618082167e-14</v>
+      </c>
+      <c r="D154">
+        <v>0.00080598597330127698</v>
+      </c>
+      <c r="E154">
+        <v>0.0024530074211190395</v>
+      </c>
+      <c r="F154">
+        <v>0.12910774022061575</v>
+      </c>
+      <c r="G154">
+        <v>0.0024499931807861965</v>
+      </c>
+      <c r="H154">
+        <v>0.00012924018376932097</v>
+      </c>
+      <c r="I154">
+        <v>0.7753869843230784</v>
+      </c>
+      <c r="J154">
+        <v>3.4170199369160348e-05</v>
+      </c>
+      <c r="K154">
+        <v>8</v>
+      </c>
+      <c r="L154">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="9" t="s">
+        <v>942</v>
+      </c>
+      <c r="B155">
+        <v>0.30573521902587747</v>
+      </c>
+      <c r="C155">
+        <v>2.5059820841816835e-14</v>
+      </c>
+      <c r="D155">
+        <v>0.0036321807515451356</v>
+      </c>
+      <c r="E155">
+        <v>0.0042656960143510293</v>
+      </c>
+      <c r="F155">
+        <v>0.33152702134178136</v>
+      </c>
+      <c r="G155">
+        <v>0.0087216564441406855</v>
+      </c>
+      <c r="H155">
+        <v>0.00010140886979954446</v>
+      </c>
+      <c r="I155">
+        <v>0.34570214245425046</v>
+      </c>
+      <c r="J155">
+        <v>0.00031467509822937466</v>
+      </c>
+      <c r="K155">
+        <v>2</v>
+      </c>
+      <c r="L155">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="9" t="s">
+        <v>943</v>
+      </c>
+      <c r="B156">
+        <v>0.29917729889603978</v>
+      </c>
+      <c r="C156">
+        <v>2.578605385319989e-14</v>
+      </c>
+      <c r="D156">
+        <v>0.0019036799452770937</v>
+      </c>
+      <c r="E156">
+        <v>0.037807133360767214</v>
+      </c>
+      <c r="F156">
+        <v>0.07781941905644417</v>
+      </c>
+      <c r="G156">
+        <v>0.008889171985833633</v>
+      </c>
+      <c r="H156">
+        <v>3.1035560128256504e-05</v>
+      </c>
+      <c r="I156">
+        <v>0.57413948803142767</v>
+      </c>
+      <c r="J156">
+        <v>0.00023277316405627901</v>
+      </c>
+      <c r="K156">
+        <v>8</v>
+      </c>
+      <c r="L156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="9" t="s">
+        <v>944</v>
+      </c>
+      <c r="B157">
+        <v>0.17534159401748578</v>
+      </c>
+      <c r="C157">
+        <v>2.2323621044754996e-14</v>
+      </c>
+      <c r="D157">
+        <v>6.0567191192515282e-05</v>
+      </c>
+      <c r="E157">
+        <v>0.026735389595016958</v>
+      </c>
+      <c r="F157">
+        <v>0.29343992238042688</v>
+      </c>
+      <c r="G157">
+        <v>0.0052106733691435697</v>
+      </c>
+      <c r="H157">
+        <v>0.00013313907629257144</v>
+      </c>
+      <c r="I157">
+        <v>0.49859367226722934</v>
+      </c>
+      <c r="J157">
+        <v>0.00048504210319010607</v>
+      </c>
+      <c r="K157">
+        <v>8</v>
+      </c>
+      <c r="L157">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="9" t="s">
+        <v>945</v>
+      </c>
+      <c r="B158">
+        <v>0.2507188440592108</v>
+      </c>
+      <c r="C158">
+        <v>0.13771493385507569</v>
+      </c>
+      <c r="D158">
+        <v>0.005786390566730781</v>
+      </c>
+      <c r="E158">
+        <v>0.045341248353870343</v>
+      </c>
+      <c r="F158">
+        <v>0.13101771414978214</v>
+      </c>
+      <c r="G158">
+        <v>0.029108751189040855</v>
+      </c>
+      <c r="H158">
+        <v>0.0057543743967974001</v>
+      </c>
+      <c r="I158">
+        <v>0.3887302484846113</v>
+      </c>
+      <c r="J158">
+        <v>0.0058274949448807716</v>
+      </c>
+      <c r="K158">
+        <v>2</v>
+      </c>
+      <c r="L158">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="9" t="s">
+        <v>946</v>
+      </c>
+      <c r="B159">
+        <v>0.13378297352336818</v>
+      </c>
+      <c r="C159">
+        <v>2.2252068955815926e-14</v>
+      </c>
+      <c r="D159">
+        <v>8.2384535074121908e-05</v>
+      </c>
+      <c r="E159">
+        <v>0.016505442549873576</v>
+      </c>
+      <c r="F159">
+        <v>0.039364138061325389</v>
+      </c>
+      <c r="G159">
+        <v>0.0095438690825916522</v>
+      </c>
+      <c r="H159">
+        <v>9.3195182201239047e-08</v>
+      </c>
+      <c r="I159">
+        <v>0.80070852258322522</v>
+      </c>
+      <c r="J159">
+        <v>1.2576469337369807e-05</v>
+      </c>
+      <c r="K159">
+        <v>8</v>
+      </c>
+      <c r="L159">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="B160">
+        <v>0.18858765864022373</v>
+      </c>
+      <c r="C160">
+        <v>2.2374381249154646e-14</v>
+      </c>
+      <c r="D160">
+        <v>0.00088344830153084272</v>
+      </c>
+      <c r="E160">
+        <v>0.0039922823006744816</v>
+      </c>
+      <c r="F160">
+        <v>0.13582705422024779</v>
+      </c>
+      <c r="G160">
+        <v>0.0015156002194841082</v>
+      </c>
+      <c r="H160">
+        <v>0.0014007848630676531</v>
+      </c>
+      <c r="I160">
+        <v>0.6675853877806246</v>
+      </c>
+      <c r="J160">
+        <v>0.00020778367412438662</v>
+      </c>
+      <c r="K160">
+        <v>8</v>
+      </c>
+      <c r="L160">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="9" t="s">
+        <v>948</v>
+      </c>
+      <c r="B161">
+        <v>0.061853599759103498</v>
+      </c>
+      <c r="C161">
+        <v>2.2312184049830866e-14</v>
+      </c>
+      <c r="D161">
+        <v>9.0094781003826408e-06</v>
+      </c>
+      <c r="E161">
+        <v>0.047656483694888271</v>
+      </c>
+      <c r="F161">
+        <v>0.016838656433463189</v>
+      </c>
+      <c r="G161">
+        <v>0.014491262969092344</v>
+      </c>
+      <c r="H161">
+        <v>1.1375448205078123e-07</v>
+      </c>
+      <c r="I161">
+        <v>0.85910377063099408</v>
+      </c>
+      <c r="J161">
+        <v>4.7103279853918095e-05</v>
+      </c>
+      <c r="K161">
+        <v>8</v>
+      </c>
+      <c r="L161">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="B162">
+        <v>0.1648356950493578</v>
+      </c>
+      <c r="C162">
+        <v>2.2362032947114606e-14</v>
+      </c>
+      <c r="D162">
+        <v>0.00097307341538429432</v>
+      </c>
+      <c r="E162">
+        <v>0.0046696107382571597</v>
+      </c>
+      <c r="F162">
+        <v>0.093870172556967807</v>
+      </c>
+      <c r="G162">
+        <v>0.0055860841206571091</v>
+      </c>
+      <c r="H162">
+        <v>0.0002092691181770406</v>
+      </c>
+      <c r="I162">
+        <v>0.72982450359515572</v>
+      </c>
+      <c r="J162">
+        <v>3.1591406020762079e-05</v>
+      </c>
+      <c r="K162">
+        <v>8</v>
+      </c>
+      <c r="L162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="9" t="s">
+        <v>950</v>
+      </c>
+      <c r="B163">
+        <v>0.12012441821229893</v>
+      </c>
+      <c r="C163">
+        <v>2.280357663281611e-14</v>
+      </c>
+      <c r="D163">
+        <v>2.3018212577801426e-05</v>
+      </c>
+      <c r="E163">
+        <v>0.28885525777722348</v>
+      </c>
+      <c r="F163">
+        <v>0.14511228096143905</v>
+      </c>
+      <c r="G163">
+        <v>0.011029320943531108</v>
+      </c>
+      <c r="H163">
+        <v>7.7809842300012135e-07</v>
+      </c>
+      <c r="I163">
+        <v>0.43437707802035286</v>
+      </c>
+      <c r="J163">
+        <v>0.00047784777413109613</v>
+      </c>
+      <c r="K163">
+        <v>2</v>
+      </c>
+      <c r="L163">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="9" t="s">
+        <v>951</v>
+      </c>
+      <c r="B164">
+        <v>0.2477389636893032</v>
+      </c>
+      <c r="C164">
+        <v>2.4552718360372077e-14</v>
+      </c>
+      <c r="D164">
+        <v>0.0028111071431308446</v>
+      </c>
+      <c r="E164">
+        <v>0.027988152622981721</v>
+      </c>
+      <c r="F164">
+        <v>0.33673817309366527</v>
+      </c>
+      <c r="G164">
+        <v>0.0062742598728204721</v>
+      </c>
+      <c r="H164">
+        <v>1.8979537275855107e-06</v>
+      </c>
+      <c r="I164">
+        <v>0.37779655711838306</v>
+      </c>
+      <c r="J164">
+        <v>0.00065088850596331136</v>
+      </c>
+      <c r="K164">
+        <v>2</v>
+      </c>
+      <c r="L164">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="9" t="s">
+        <v>952</v>
+      </c>
+      <c r="B165">
+        <v>0.07109032832057928</v>
+      </c>
+      <c r="C165">
+        <v>2.2249525211005692e-14</v>
+      </c>
+      <c r="D165">
+        <v>9.6395045651334747e-06</v>
+      </c>
+      <c r="E165">
+        <v>0.0065216307724108406</v>
+      </c>
+      <c r="F165">
+        <v>0.033279313057724615</v>
+      </c>
+      <c r="G165">
+        <v>0.0012821658179687015</v>
+      </c>
+      <c r="H165">
+        <v>1.1843188888136168e-08</v>
+      </c>
+      <c r="I165">
+        <v>0.8877430755747413</v>
+      </c>
+      <c r="J165">
+        <v>7.3835108799072562e-05</v>
+      </c>
+      <c r="K165">
+        <v>8</v>
+      </c>
+      <c r="L165">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="B166">
+        <v>0.21715279639858126</v>
+      </c>
+      <c r="C166">
+        <v>2.2858575566152327e-14</v>
+      </c>
+      <c r="D166">
+        <v>0.0055426354191301661</v>
+      </c>
+      <c r="E166">
+        <v>0.0059580342069521248</v>
+      </c>
+      <c r="F166">
+        <v>0.23444815259103807</v>
+      </c>
+      <c r="G166">
+        <v>0.0092147143395597472</v>
+      </c>
+      <c r="H166">
+        <v>0.00018370963519270057</v>
+      </c>
+      <c r="I166">
+        <v>0.52743952836349606</v>
+      </c>
+      <c r="J166">
+        <v>6.0429046027149154e-05</v>
+      </c>
+      <c r="K166">
+        <v>8</v>
+      </c>
+      <c r="L166">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="9" t="s">
+        <v>954</v>
+      </c>
+      <c r="B167">
+        <v>0.20616792416124832</v>
+      </c>
+      <c r="C167">
+        <v>2.2264521119950492e-14</v>
+      </c>
+      <c r="D167">
+        <v>0.11963659324349359</v>
+      </c>
+      <c r="E167">
+        <v>0.041443814001864566</v>
+      </c>
+      <c r="F167">
+        <v>0.11575759951332518</v>
+      </c>
+      <c r="G167">
+        <v>0.0012491360456338414</v>
+      </c>
+      <c r="H167">
+        <v>0.00017283236491346068</v>
+      </c>
+      <c r="I167">
+        <v>0.51423165218389699</v>
+      </c>
+      <c r="J167">
+        <v>0.001340448485601776</v>
+      </c>
+      <c r="K167">
+        <v>8</v>
+      </c>
+      <c r="L167">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="9" t="s">
+        <v>955</v>
+      </c>
+      <c r="B168">
+        <v>0.14327505314273509</v>
+      </c>
+      <c r="C168">
+        <v>2.2280809404480219e-14</v>
+      </c>
+      <c r="D168">
+        <v>3.2708476132366023e-05</v>
+      </c>
+      <c r="E168">
+        <v>0.00031695577912215639</v>
+      </c>
+      <c r="F168">
+        <v>0.042371487824779022</v>
+      </c>
+      <c r="G168">
+        <v>0.001732660979394727</v>
+      </c>
+      <c r="H168">
+        <v>2.4442774283427827e-05</v>
+      </c>
+      <c r="I168">
+        <v>0.81217704282794312</v>
+      </c>
+      <c r="J168">
+        <v>6.9648195587837777e-05</v>
+      </c>
+      <c r="K168">
+        <v>8</v>
+      </c>
+      <c r="L168">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="B169">
+        <v>0.078743011547660183</v>
+      </c>
+      <c r="C169">
+        <v>2.2186674501323785e-14</v>
+      </c>
+      <c r="D169">
+        <v>0.00034536256164950451</v>
+      </c>
+      <c r="E169">
+        <v>0.0013838052530909251</v>
+      </c>
+      <c r="F169">
+        <v>0.0030564292064897561</v>
+      </c>
+      <c r="G169">
+        <v>0.0001355785712319265</v>
+      </c>
+      <c r="H169">
+        <v>3.3638917033673332e-13</v>
+      </c>
+      <c r="I169">
+        <v>0.91631090037416141</v>
+      </c>
+      <c r="J169">
+        <v>2.4912485357726809e-05</v>
+      </c>
+      <c r="K169">
+        <v>8</v>
+      </c>
+      <c r="L169">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="9" t="s">
+        <v>957</v>
+      </c>
+      <c r="B170">
+        <v>0.21549502015655136</v>
+      </c>
+      <c r="C170">
+        <v>2.2253403523629447e-14</v>
+      </c>
+      <c r="D170">
+        <v>4.450338496519895e-05</v>
+      </c>
+      <c r="E170">
+        <v>0.023304855310435246</v>
+      </c>
+      <c r="F170">
+        <v>0.15728991931590222</v>
+      </c>
+      <c r="G170">
+        <v>0.014090211196511165</v>
+      </c>
+      <c r="H170">
+        <v>5.3702360532789151e-07</v>
+      </c>
+      <c r="I170">
+        <v>0.58969595925698015</v>
+      </c>
+      <c r="J170">
+        <v>7.8994355027173333e-05</v>
+      </c>
+      <c r="K170">
+        <v>8</v>
+      </c>
+      <c r="L170">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="B171">
+        <v>0.17169649824707067</v>
+      </c>
+      <c r="C171">
+        <v>2.2214551392602266e-14</v>
+      </c>
+      <c r="D171">
+        <v>0.00029174833284668206</v>
+      </c>
+      <c r="E171">
+        <v>0.0077009183284164826</v>
+      </c>
+      <c r="F171">
+        <v>0.082180561786354939</v>
+      </c>
+      <c r="G171">
+        <v>0.0035280910888941717</v>
+      </c>
+      <c r="H171">
+        <v>1.1354421106909553e-06</v>
+      </c>
+      <c r="I171">
+        <v>0.7344677054596398</v>
+      </c>
+      <c r="J171">
+        <v>0.00013334131464440754</v>
+      </c>
+      <c r="K171">
+        <v>8</v>
+      </c>
+      <c r="L171">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="9" t="s">
+        <v>959</v>
+      </c>
+      <c r="B172">
+        <v>0.27236744227366777</v>
+      </c>
+      <c r="C172">
+        <v>2.2367845461502149e-14</v>
+      </c>
+      <c r="D172">
+        <v>7.6898560875578317e-05</v>
+      </c>
+      <c r="E172">
+        <v>0.048298166515041395</v>
+      </c>
+      <c r="F172">
+        <v>0.23196767259269244</v>
+      </c>
+      <c r="G172">
+        <v>0.0080922813953868498</v>
+      </c>
+      <c r="H172">
+        <v>9.0466795069971324e-05</v>
+      </c>
+      <c r="I172">
+        <v>0.43733156460888284</v>
+      </c>
+      <c r="J172">
+        <v>0.0017755072583609214</v>
+      </c>
+      <c r="K172">
+        <v>2</v>
+      </c>
+      <c r="L172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="9" t="s">
+        <v>960</v>
+      </c>
+      <c r="B173">
+        <v>0.079130328755985913</v>
+      </c>
+      <c r="C173">
+        <v>2.2305251759830986e-14</v>
+      </c>
+      <c r="D173">
+        <v>0.00072422979411676611</v>
+      </c>
+      <c r="E173">
+        <v>0.048807877700229374</v>
+      </c>
+      <c r="F173">
+        <v>0.012590465082101331</v>
+      </c>
+      <c r="G173">
+        <v>0.0043532372784299634</v>
+      </c>
+      <c r="H173">
+        <v>5.5330066223635532e-06</v>
+      </c>
+      <c r="I173">
+        <v>0.8542537623381824</v>
+      </c>
+      <c r="J173">
+        <v>0.00013456604430951881</v>
+      </c>
+      <c r="K173">
+        <v>8</v>
+      </c>
+      <c r="L173">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="9" t="s">
+        <v>961</v>
+      </c>
+      <c r="B174">
+        <v>0.15006593384340333</v>
+      </c>
+      <c r="C174">
+        <v>2.2312184151874246e-14</v>
+      </c>
+      <c r="D174">
+        <v>0.0021186794863368146</v>
+      </c>
+      <c r="E174">
+        <v>0.0010579381607944114</v>
+      </c>
+      <c r="F174">
+        <v>0.14950042011304251</v>
+      </c>
+      <c r="G174">
+        <v>0.0021758709976793722</v>
+      </c>
+      <c r="H174">
+        <v>7.2972001427904193e-07</v>
+      </c>
+      <c r="I174">
+        <v>0.6950250419941344</v>
+      </c>
+      <c r="J174">
+        <v>5.5385684572607747e-05</v>
+      </c>
+      <c r="K174">
+        <v>8</v>
+      </c>
+      <c r="L174">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="9" t="s">
+        <v>962</v>
+      </c>
+      <c r="B175">
+        <v>0.11086929202975711</v>
+      </c>
+      <c r="C175">
+        <v>2.2446378621668984e-14</v>
+      </c>
+      <c r="D175">
+        <v>7.4328753976015788e-05</v>
+      </c>
+      <c r="E175">
+        <v>0.093468512309862833</v>
+      </c>
+      <c r="F175">
+        <v>0.1632612056825879</v>
+      </c>
+      <c r="G175">
+        <v>0.0087849514067230763</v>
+      </c>
+      <c r="H175">
+        <v>4.611032013547891e-09</v>
+      </c>
+      <c r="I175">
+        <v>0.62152540959239699</v>
+      </c>
+      <c r="J175">
+        <v>0.0020162956136417407</v>
+      </c>
+      <c r="K175">
+        <v>8</v>
+      </c>
+      <c r="L175">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="B176">
+        <v>0.25057019520756435</v>
+      </c>
+      <c r="C176">
+        <v>2.224814873582091e-14</v>
+      </c>
+      <c r="D176">
+        <v>0.00023484530585768479</v>
+      </c>
+      <c r="E176">
+        <v>0.00079670972408407128</v>
+      </c>
+      <c r="F176">
+        <v>0.094644732179310673</v>
+      </c>
+      <c r="G176">
+        <v>0.0042836837728665537</v>
+      </c>
+      <c r="H176">
+        <v>6.2422080587426685e-05</v>
+      </c>
+      <c r="I176">
+        <v>0.6493630346437762</v>
+      </c>
+      <c r="J176">
+        <v>4.4377085930708992e-05</v>
+      </c>
+      <c r="K176">
+        <v>8</v>
+      </c>
+      <c r="L176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="9" t="s">
+        <v>964</v>
+      </c>
+      <c r="B177">
+        <v>0.14982060943426898</v>
+      </c>
+      <c r="C177">
+        <v>2.2377328856298251e-14</v>
+      </c>
+      <c r="D177">
+        <v>2.0449422867352832e-05</v>
+      </c>
+      <c r="E177">
+        <v>0.00074088036888342193</v>
+      </c>
+      <c r="F177">
+        <v>0.095119682360088068</v>
+      </c>
+      <c r="G177">
+        <v>0.0023694752631240727</v>
+      </c>
+      <c r="H177">
+        <v>7.5736394277783691e-09</v>
+      </c>
+      <c r="I177">
+        <v>0.75190633390596329</v>
+      </c>
+      <c r="J177">
+        <v>2.2561671142926715e-05</v>
+      </c>
+      <c r="K177">
+        <v>8</v>
+      </c>
+      <c r="L177">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="B178">
+        <v>0.33099547986594563</v>
+      </c>
+      <c r="C178">
+        <v>0.20468310324775721</v>
+      </c>
+      <c r="D178">
+        <v>0.0094289968524511655</v>
+      </c>
+      <c r="E178">
+        <v>0.070273358244102344</v>
+      </c>
+      <c r="F178">
+        <v>0.20894606889705944</v>
+      </c>
+      <c r="G178">
+        <v>0.0084839245894461554</v>
+      </c>
+      <c r="H178">
+        <v>0.0061850317403452084</v>
+      </c>
+      <c r="I178">
+        <v>0.15293809345145185</v>
+      </c>
+      <c r="J178">
+        <v>0.0080659431114408989</v>
+      </c>
+      <c r="K178">
+        <v>2</v>
+      </c>
+      <c r="L178">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="9" t="s">
+        <v>966</v>
+      </c>
+      <c r="B179">
+        <v>0.17722609696049166</v>
+      </c>
+      <c r="C179">
+        <v>2.2377109648075832e-14</v>
+      </c>
+      <c r="D179">
+        <v>0.0057312662938111911</v>
+      </c>
+      <c r="E179">
+        <v>0.12986573548149577</v>
+      </c>
+      <c r="F179">
+        <v>0.11860048045296784</v>
+      </c>
+      <c r="G179">
+        <v>0.0071584078564695276</v>
+      </c>
+      <c r="H179">
+        <v>0.00063448489630323057</v>
+      </c>
+      <c r="I179">
+        <v>0.55979588031130967</v>
+      </c>
+      <c r="J179">
+        <v>0.0009876477471287982</v>
+      </c>
+      <c r="K179">
+        <v>8</v>
+      </c>
+      <c r="L179">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="B180">
+        <v>0.20489049951286442</v>
+      </c>
+      <c r="C180">
+        <v>2.228728001631582e-14</v>
+      </c>
+      <c r="D180">
+        <v>0.0012712661050045464</v>
+      </c>
+      <c r="E180">
+        <v>0.20386764112388214</v>
+      </c>
+      <c r="F180">
+        <v>0.10073609139150887</v>
+      </c>
+      <c r="G180">
+        <v>0.0064888003290605838</v>
+      </c>
+      <c r="H180">
+        <v>4.4742604041221216e-05</v>
+      </c>
+      <c r="I180">
+        <v>0.4816089930604322</v>
+      </c>
+      <c r="J180">
+        <v>0.0010919658731837313</v>
+      </c>
+      <c r="K180">
+        <v>8</v>
+      </c>
+      <c r="L180">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="9" t="s">
+        <v>968</v>
+      </c>
+      <c r="B181">
+        <v>0.10467706702728333</v>
+      </c>
+      <c r="C181">
+        <v>2.240529498384566e-14</v>
+      </c>
+      <c r="D181">
+        <v>0.00798674845331937</v>
+      </c>
+      <c r="E181">
+        <v>0.013401883830427971</v>
+      </c>
+      <c r="F181">
+        <v>0.098613395897767742</v>
+      </c>
+      <c r="G181">
+        <v>0.0029908823578727191</v>
+      </c>
+      <c r="H181">
+        <v>4.5405982451470231e-05</v>
+      </c>
+      <c r="I181">
+        <v>0.77208136655914772</v>
+      </c>
+      <c r="J181">
+        <v>0.00020324989170714307</v>
+      </c>
+      <c r="K181">
+        <v>8</v>
+      </c>
+      <c r="L181">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="9" t="s">
+        <v>969</v>
+      </c>
+      <c r="B182">
+        <v>0.12971836867962117</v>
+      </c>
+      <c r="C182">
+        <v>2.2335210068239274e-14</v>
+      </c>
+      <c r="D182">
+        <v>0.00081424047622749714</v>
+      </c>
+      <c r="E182">
+        <v>0.046989929278464883</v>
+      </c>
+      <c r="F182">
+        <v>0.029249221904471032</v>
+      </c>
+      <c r="G182">
+        <v>0.0030184528087874064</v>
+      </c>
+      <c r="H182">
+        <v>1.3530176237502884e-05</v>
+      </c>
+      <c r="I182">
+        <v>0.79004006775664848</v>
+      </c>
+      <c r="J182">
+        <v>0.00015618891951982769</v>
+      </c>
+      <c r="K182">
+        <v>8</v>
+      </c>
+      <c r="L182">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="9" t="s">
+        <v>970</v>
+      </c>
+      <c r="B183">
+        <v>0.13270968802775415</v>
+      </c>
+      <c r="C183">
+        <v>2.2387441238714816e-14</v>
+      </c>
+      <c r="D183">
+        <v>0.012143896118669405</v>
+      </c>
+      <c r="E183">
+        <v>0.016109048627777789</v>
+      </c>
+      <c r="F183">
+        <v>0.065873886912814664</v>
+      </c>
+      <c r="G183">
+        <v>0.0019423168431369972</v>
+      </c>
+      <c r="H183">
+        <v>0.0069859812288348179</v>
+      </c>
+      <c r="I183">
+        <v>0.76399709246914149</v>
+      </c>
+      <c r="J183">
+        <v>0.00023808977184828906</v>
+      </c>
+      <c r="K183">
+        <v>8</v>
+      </c>
+      <c r="L183">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="9" t="s">
+        <v>971</v>
+      </c>
+      <c r="B184">
+        <v>0.27555835319496264</v>
+      </c>
+      <c r="C184">
+        <v>0.32882376482085762</v>
+      </c>
+      <c r="D184">
+        <v>0.016031835593112623</v>
+      </c>
+      <c r="E184">
+        <v>0.032090918021488966</v>
+      </c>
+      <c r="F184">
+        <v>0.2080459859518064</v>
+      </c>
+      <c r="G184">
+        <v>0.074733892809874886</v>
+      </c>
+      <c r="H184">
+        <v>0.0061130701663893337</v>
+      </c>
+      <c r="I184">
+        <v>0.052238331033860302</v>
+      </c>
+      <c r="J184">
+        <v>0.0063638484076472728</v>
+      </c>
+      <c r="K184">
+        <v>2</v>
+      </c>
+      <c r="L184">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="B185">
+        <v>0.08609059070411608</v>
+      </c>
+      <c r="C185">
+        <v>2.2340719493901732e-14</v>
+      </c>
+      <c r="D185">
+        <v>0.0030943844636789129</v>
+      </c>
+      <c r="E185">
+        <v>0.013040041564380815</v>
+      </c>
+      <c r="F185">
+        <v>0.067147469637225163</v>
+      </c>
+      <c r="G185">
+        <v>0.0025750477932972747</v>
+      </c>
+      <c r="H185">
+        <v>1.9505581170443493e-05</v>
+      </c>
+      <c r="I185">
+        <v>0.82615586992135892</v>
+      </c>
+      <c r="J185">
+        <v>0.0018770903347501036</v>
+      </c>
+      <c r="K185">
+        <v>8</v>
+      </c>
+      <c r="L185">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="B186">
+        <v>0.14258960796846007</v>
+      </c>
+      <c r="C186">
+        <v>2.2329898417192299e-14</v>
+      </c>
+      <c r="D186">
+        <v>0.00061172693565052021</v>
+      </c>
+      <c r="E186">
+        <v>0.029688964933709885</v>
+      </c>
+      <c r="F186">
+        <v>0.032644564004314883</v>
+      </c>
+      <c r="G186">
+        <v>0.0037978467669351804</v>
+      </c>
+      <c r="H186">
+        <v>5.862334939189245e-05</v>
+      </c>
+      <c r="I186">
+        <v>0.79041573694175737</v>
+      </c>
+      <c r="J186">
+        <v>0.00019292909975781745</v>
+      </c>
+      <c r="K186">
+        <v>8</v>
+      </c>
+      <c r="L186">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="9" t="s">
+        <v>974</v>
+      </c>
+      <c r="B187">
+        <v>0.10696175462264541</v>
+      </c>
+      <c r="C187">
+        <v>2.2448485980543787e-14</v>
+      </c>
+      <c r="D187">
+        <v>0.046597002268562344</v>
+      </c>
+      <c r="E187">
+        <v>0.0036132236190032051</v>
+      </c>
+      <c r="F187">
+        <v>0.073300025063282009</v>
+      </c>
+      <c r="G187">
+        <v>0.0018272000211351504</v>
+      </c>
+      <c r="H187">
+        <v>5.0778509794203516e-05</v>
+      </c>
+      <c r="I187">
+        <v>0.76751717959513122</v>
+      </c>
+      <c r="J187">
+        <v>0.00013283630042407684</v>
+      </c>
+      <c r="K187">
+        <v>8</v>
+      </c>
+      <c r="L187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="9" t="s">
+        <v>975</v>
+      </c>
+      <c r="B188">
+        <v>0.19704550938261794</v>
+      </c>
+      <c r="C188">
+        <v>2.2300017741494724e-14</v>
+      </c>
+      <c r="D188">
+        <v>0.027472308134438329</v>
+      </c>
+      <c r="E188">
+        <v>0.0091083554553196694</v>
+      </c>
+      <c r="F188">
+        <v>0.11772959583003577</v>
+      </c>
+      <c r="G188">
+        <v>0.0030236319246790848</v>
+      </c>
+      <c r="H188">
+        <v>0.00068801891938351559</v>
+      </c>
+      <c r="I188">
+        <v>0.64474733011444951</v>
+      </c>
+      <c r="J188">
+        <v>0.00018525023905394263</v>
+      </c>
+      <c r="K188">
+        <v>8</v>
+      </c>
+      <c r="L188">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="9" t="s">
+        <v>976</v>
+      </c>
+      <c r="B189">
+        <v>0.205755506799886</v>
+      </c>
+      <c r="C189">
+        <v>2.2321721278996915e-14</v>
+      </c>
+      <c r="D189">
+        <v>0.0045504166339334594</v>
+      </c>
+      <c r="E189">
+        <v>0.029020604448613815</v>
+      </c>
+      <c r="F189">
+        <v>0.16976208607808016</v>
+      </c>
+      <c r="G189">
+        <v>0.0038534464519277482</v>
+      </c>
+      <c r="H189">
+        <v>0.0010667196420016155</v>
+      </c>
+      <c r="I189">
+        <v>0.58570449591174156</v>
+      </c>
+      <c r="J189">
+        <v>0.00028672403379320513</v>
+      </c>
+      <c r="K189">
+        <v>8</v>
+      </c>
+      <c r="L189">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="9" t="s">
+        <v>977</v>
+      </c>
+      <c r="B190">
+        <v>0.15191967060829645</v>
+      </c>
+      <c r="C190">
+        <v>2.2493646727914718e-14</v>
+      </c>
+      <c r="D190">
+        <v>0.0010690876755468672</v>
+      </c>
+      <c r="E190">
+        <v>0.11582892207992174</v>
+      </c>
+      <c r="F190">
+        <v>0.066864743659167072</v>
+      </c>
+      <c r="G190">
+        <v>0.0091698097078368405</v>
+      </c>
+      <c r="H190">
+        <v>6.875820426060647e-05</v>
+      </c>
+      <c r="I190">
+        <v>0.65481898489621837</v>
+      </c>
+      <c r="J190">
+        <v>0.0002600231687294999</v>
+      </c>
+      <c r="K190">
+        <v>8</v>
+      </c>
+      <c r="L190">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="9" t="s">
+        <v>978</v>
+      </c>
+      <c r="B191">
+        <v>0.2018504303060927</v>
+      </c>
+      <c r="C191">
+        <v>0.22432575011164244</v>
+      </c>
+      <c r="D191">
+        <v>0.011076470459338628</v>
+      </c>
+      <c r="E191">
+        <v>0.24700320014754035</v>
+      </c>
+      <c r="F191">
+        <v>0.17730021545437569</v>
+      </c>
+      <c r="G191">
+        <v>0.015706979827460776</v>
+      </c>
+      <c r="H191">
+        <v>0.0062694362311920548</v>
+      </c>
+      <c r="I191">
+        <v>0.10762538279227776</v>
+      </c>
+      <c r="J191">
+        <v>0.0088421346700795038</v>
+      </c>
+      <c r="K191">
+        <v>2</v>
+      </c>
+      <c r="L191">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="9" t="s">
+        <v>979</v>
+      </c>
+      <c r="B192">
+        <v>0.13001290646289249</v>
+      </c>
+      <c r="C192">
+        <v>2.237862441046234e-14</v>
+      </c>
+      <c r="D192">
+        <v>0.01232897287031183</v>
+      </c>
+      <c r="E192">
+        <v>0.0085584590995922052</v>
+      </c>
+      <c r="F192">
+        <v>0.090458248395370061</v>
+      </c>
+      <c r="G192">
+        <v>0.0027082459185395237</v>
+      </c>
+      <c r="H192">
+        <v>0.00061589078390143835</v>
+      </c>
+      <c r="I192">
+        <v>0.75519777504711139</v>
+      </c>
+      <c r="J192">
+        <v>0.00011950142225872979</v>
+      </c>
+      <c r="K192">
+        <v>8</v>
+      </c>
+      <c r="L192">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="9" t="s">
+        <v>980</v>
+      </c>
+      <c r="B193">
+        <v>0.13724383401776974</v>
+      </c>
+      <c r="C193">
+        <v>2.2415404704507108e-14</v>
+      </c>
+      <c r="D193">
+        <v>0.003758369642298514</v>
+      </c>
+      <c r="E193">
+        <v>0.0065943954912840146</v>
+      </c>
+      <c r="F193">
+        <v>0.12942910494064663</v>
+      </c>
+      <c r="G193">
+        <v>0.0034833192763641155</v>
+      </c>
+      <c r="H193">
+        <v>0.00014183876281909837</v>
+      </c>
+      <c r="I193">
+        <v>0.71922020378425955</v>
+      </c>
+      <c r="J193">
+        <v>0.00012893408453588346</v>
+      </c>
+      <c r="K193">
+        <v>8</v>
+      </c>
+      <c r="L193">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="9" t="s">
+        <v>981</v>
+      </c>
+      <c r="B194">
+        <v>0.12210672016520928</v>
+      </c>
+      <c r="C194">
+        <v>2.2437976745594111e-14</v>
+      </c>
+      <c r="D194">
+        <v>0.0086318931231033555</v>
+      </c>
+      <c r="E194">
+        <v>0.016999514355366886</v>
+      </c>
+      <c r="F194">
+        <v>0.1189754420994745</v>
+      </c>
+      <c r="G194">
+        <v>0.0037488012695488866</v>
+      </c>
+      <c r="H194">
+        <v>0.00015055289172725381</v>
+      </c>
+      <c r="I194">
+        <v>0.72921086005437863</v>
+      </c>
+      <c r="J194">
+        <v>0.00017621604116891911</v>
+      </c>
+      <c r="K194">
+        <v>8</v>
+      </c>
+      <c r="L194">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="9" t="s">
+        <v>982</v>
+      </c>
+      <c r="B195">
+        <v>0.25159305807409899</v>
+      </c>
+      <c r="C195">
+        <v>2.5404249424562377e-14</v>
+      </c>
+      <c r="D195">
+        <v>0.01049419116415316</v>
+      </c>
+      <c r="E195">
+        <v>0.14794786659022269</v>
+      </c>
+      <c r="F195">
+        <v>0.20638566898884209</v>
+      </c>
+      <c r="G195">
+        <v>0.025015146207786634</v>
+      </c>
+      <c r="H195">
+        <v>6.8449940415874576e-05</v>
+      </c>
+      <c r="I195">
+        <v>0.35798225935545663</v>
+      </c>
+      <c r="J195">
+        <v>0.00051335967899836796</v>
+      </c>
+      <c r="K195">
+        <v>2</v>
+      </c>
+      <c r="L195">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>